--- a/pm/stock.xlsx
+++ b/pm/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clinton/Dropbox/application_data/GitHub/ec_data/pm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9BE4784-A58F-9F40-A470-8E5461DA5F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{147BBD10-F802-F04C-A3C9-6CF677CE3AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query Sheet" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>T5713</t>
   </si>
   <si>
-    <t>T5019</t>
+    <t>T8002</t>
   </si>
   <si>
     <t>[Item]</t>
@@ -437,7 +437,7 @@
     <t>NTT DATA</t>
   </si>
   <si>
-    <t>IDEMITSU KOSAN</t>
+    <t>MARUBENI</t>
   </si>
   <si>
     <t>Tokyo Stock Exchange</t>
@@ -2066,9 +2066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2881,7 +2879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L399"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3235,7 +3233,9 @@
       <c r="K10" s="7">
         <v>4460</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="7">
+        <v>983</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -3269,7 +3269,9 @@
       <c r="K11" s="7">
         <v>3600</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="7">
+        <v>924</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -3303,7 +3305,9 @@
       <c r="K12" s="7">
         <v>2580</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="7">
+        <v>700</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -3337,7 +3341,9 @@
       <c r="K13" s="7">
         <v>2720</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="7">
+        <v>768</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
@@ -3371,7 +3377,9 @@
       <c r="K14" s="7">
         <v>3260</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="7">
+        <v>850</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -3405,7 +3413,9 @@
       <c r="K15" s="7">
         <v>2800</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="7">
+        <v>750</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -3439,7 +3449,9 @@
       <c r="K16" s="7">
         <v>3060</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="7">
+        <v>690</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
@@ -3473,7 +3485,9 @@
       <c r="K17" s="7">
         <v>2600</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="7">
+        <v>590</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
@@ -3507,7 +3521,9 @@
       <c r="K18" s="7">
         <v>2480</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="7">
+        <v>550</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -3541,7 +3557,9 @@
       <c r="K19" s="7">
         <v>2600</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="7">
+        <v>685</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -3575,7 +3593,9 @@
       <c r="K20" s="7">
         <v>2040</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="7">
+        <v>570</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -3609,7 +3629,9 @@
       <c r="K21" s="7">
         <v>2260</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="7">
+        <v>660</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
@@ -3643,7 +3665,9 @@
       <c r="K22" s="7">
         <v>2100</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="7">
+        <v>638</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -3677,7 +3701,9 @@
       <c r="K23" s="7">
         <v>2440</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="7">
+        <v>720</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -3711,7 +3737,9 @@
       <c r="K24" s="7">
         <v>2420</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="7">
+        <v>704</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -3745,7 +3773,9 @@
       <c r="K25" s="7">
         <v>2500</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="7">
+        <v>644</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
@@ -3779,7 +3809,9 @@
       <c r="K26" s="7">
         <v>2600</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="7">
+        <v>654</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
@@ -3813,7 +3845,9 @@
       <c r="K27" s="7">
         <v>2360</v>
       </c>
-      <c r="L27" s="6"/>
+      <c r="L27" s="7">
+        <v>578</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
@@ -3847,7 +3881,9 @@
       <c r="K28" s="7">
         <v>2260</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="7">
+        <v>580</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
@@ -3881,7 +3917,9 @@
       <c r="K29" s="7">
         <v>2080</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="7">
+        <v>552</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -3915,7 +3953,9 @@
       <c r="K30" s="7">
         <v>2040</v>
       </c>
-      <c r="L30" s="6"/>
+      <c r="L30" s="7">
+        <v>628</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -3949,7 +3989,9 @@
       <c r="K31" s="7">
         <v>2240</v>
       </c>
-      <c r="L31" s="6"/>
+      <c r="L31" s="7">
+        <v>620</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
@@ -3983,7 +4025,9 @@
       <c r="K32" s="7">
         <v>2180</v>
       </c>
-      <c r="L32" s="6"/>
+      <c r="L32" s="7">
+        <v>546</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
@@ -4017,7 +4061,9 @@
       <c r="K33" s="7">
         <v>2060</v>
       </c>
-      <c r="L33" s="6"/>
+      <c r="L33" s="7">
+        <v>550</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
@@ -4051,7 +4097,9 @@
       <c r="K34" s="7">
         <v>2020</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="L34" s="7">
+        <v>501</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
@@ -4085,7 +4133,9 @@
       <c r="K35" s="7">
         <v>1976</v>
       </c>
-      <c r="L35" s="6"/>
+      <c r="L35" s="7">
+        <v>493</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
@@ -4119,7 +4169,9 @@
       <c r="K36" s="7">
         <v>1636</v>
       </c>
-      <c r="L36" s="6"/>
+      <c r="L36" s="7">
+        <v>450</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
@@ -4153,7 +4205,9 @@
       <c r="K37" s="7">
         <v>1588</v>
       </c>
-      <c r="L37" s="6"/>
+      <c r="L37" s="7">
+        <v>430</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
@@ -4187,7 +4241,9 @@
       <c r="K38" s="7">
         <v>1558</v>
       </c>
-      <c r="L38" s="6"/>
+      <c r="L38" s="7">
+        <v>426</v>
+      </c>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -4221,7 +4277,9 @@
       <c r="K39" s="7">
         <v>1304</v>
       </c>
-      <c r="L39" s="6"/>
+      <c r="L39" s="7">
+        <v>347</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
@@ -4255,7 +4313,9 @@
       <c r="K40" s="7">
         <v>1440</v>
       </c>
-      <c r="L40" s="6"/>
+      <c r="L40" s="7">
+        <v>361</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
@@ -4289,7 +4349,9 @@
       <c r="K41" s="7">
         <v>1470</v>
       </c>
-      <c r="L41" s="6"/>
+      <c r="L41" s="7">
+        <v>410</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
@@ -4323,7 +4385,9 @@
       <c r="K42" s="7">
         <v>1438</v>
       </c>
-      <c r="L42" s="6"/>
+      <c r="L42" s="7">
+        <v>396</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
@@ -4357,7 +4421,9 @@
       <c r="K43" s="7">
         <v>1358</v>
       </c>
-      <c r="L43" s="6"/>
+      <c r="L43" s="7">
+        <v>374</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -4391,7 +4457,9 @@
       <c r="K44" s="7">
         <v>1424</v>
       </c>
-      <c r="L44" s="6"/>
+      <c r="L44" s="7">
+        <v>389</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
@@ -4425,7 +4493,9 @@
       <c r="K45" s="7">
         <v>1320</v>
       </c>
-      <c r="L45" s="6"/>
+      <c r="L45" s="7">
+        <v>371</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
@@ -4459,7 +4529,9 @@
       <c r="K46" s="7">
         <v>1300</v>
       </c>
-      <c r="L46" s="6"/>
+      <c r="L46" s="7">
+        <v>379</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
@@ -4493,7 +4565,9 @@
       <c r="K47" s="7">
         <v>1284</v>
       </c>
-      <c r="L47" s="6"/>
+      <c r="L47" s="7">
+        <v>356</v>
+      </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -4527,7 +4601,9 @@
       <c r="K48" s="7">
         <v>1510</v>
       </c>
-      <c r="L48" s="6"/>
+      <c r="L48" s="7">
+        <v>450</v>
+      </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -4561,7 +4637,9 @@
       <c r="K49" s="7">
         <v>2180</v>
       </c>
-      <c r="L49" s="6"/>
+      <c r="L49" s="7">
+        <v>517</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
@@ -4595,7 +4673,9 @@
       <c r="K50" s="7">
         <v>2180</v>
       </c>
-      <c r="L50" s="6"/>
+      <c r="L50" s="7">
+        <v>495</v>
+      </c>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
@@ -4629,7 +4709,9 @@
       <c r="K51" s="7">
         <v>2040</v>
       </c>
-      <c r="L51" s="6"/>
+      <c r="L51" s="7">
+        <v>481</v>
+      </c>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
@@ -4663,7 +4745,9 @@
       <c r="K52" s="7">
         <v>2140</v>
       </c>
-      <c r="L52" s="6"/>
+      <c r="L52" s="7">
+        <v>489</v>
+      </c>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
@@ -4697,7 +4781,9 @@
       <c r="K53" s="7">
         <v>2000</v>
       </c>
-      <c r="L53" s="6"/>
+      <c r="L53" s="7">
+        <v>529</v>
+      </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
@@ -4731,7 +4817,9 @@
       <c r="K54" s="7">
         <v>1710</v>
       </c>
-      <c r="L54" s="6"/>
+      <c r="L54" s="7">
+        <v>512</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
@@ -4765,7 +4853,9 @@
       <c r="K55" s="7">
         <v>1732</v>
       </c>
-      <c r="L55" s="6"/>
+      <c r="L55" s="7">
+        <v>514</v>
+      </c>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
@@ -4799,7 +4889,9 @@
       <c r="K56" s="7">
         <v>1468</v>
       </c>
-      <c r="L56" s="6"/>
+      <c r="L56" s="7">
+        <v>433</v>
+      </c>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
@@ -4833,7 +4925,9 @@
       <c r="K57" s="7">
         <v>1740</v>
       </c>
-      <c r="L57" s="6"/>
+      <c r="L57" s="7">
+        <v>443</v>
+      </c>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -4867,7 +4961,9 @@
       <c r="K58" s="7">
         <v>1810</v>
       </c>
-      <c r="L58" s="6"/>
+      <c r="L58" s="7">
+        <v>502</v>
+      </c>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
@@ -4901,7 +4997,9 @@
       <c r="K59" s="7">
         <v>1754</v>
       </c>
-      <c r="L59" s="6"/>
+      <c r="L59" s="7">
+        <v>495</v>
+      </c>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
@@ -4935,7 +5033,9 @@
       <c r="K60" s="7">
         <v>1826</v>
       </c>
-      <c r="L60" s="6"/>
+      <c r="L60" s="7">
+        <v>482</v>
+      </c>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
@@ -4969,7 +5069,9 @@
       <c r="K61" s="7">
         <v>1770</v>
       </c>
-      <c r="L61" s="6"/>
+      <c r="L61" s="7">
+        <v>519</v>
+      </c>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
@@ -5003,7 +5105,9 @@
       <c r="K62" s="7">
         <v>1914</v>
       </c>
-      <c r="L62" s="6"/>
+      <c r="L62" s="7">
+        <v>568</v>
+      </c>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
@@ -5037,7 +5141,9 @@
       <c r="K63" s="7">
         <v>1950</v>
       </c>
-      <c r="L63" s="6"/>
+      <c r="L63" s="7">
+        <v>544</v>
+      </c>
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
@@ -5071,7 +5177,9 @@
       <c r="K64" s="7">
         <v>1860</v>
       </c>
-      <c r="L64" s="6"/>
+      <c r="L64" s="7">
+        <v>532</v>
+      </c>
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
@@ -5105,7 +5213,9 @@
       <c r="K65" s="7">
         <v>1878</v>
       </c>
-      <c r="L65" s="6"/>
+      <c r="L65" s="7">
+        <v>553</v>
+      </c>
     </row>
     <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
@@ -5139,7 +5249,9 @@
       <c r="K66" s="7">
         <v>1930</v>
       </c>
-      <c r="L66" s="6"/>
+      <c r="L66" s="7">
+        <v>549</v>
+      </c>
     </row>
     <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
@@ -5173,7 +5285,9 @@
       <c r="K67" s="7">
         <v>1920</v>
       </c>
-      <c r="L67" s="6"/>
+      <c r="L67" s="7">
+        <v>560</v>
+      </c>
     </row>
     <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -5207,7 +5321,9 @@
       <c r="K68" s="7">
         <v>1860</v>
       </c>
-      <c r="L68" s="6"/>
+      <c r="L68" s="7">
+        <v>554</v>
+      </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
@@ -5241,7 +5357,9 @@
       <c r="K69" s="7">
         <v>1822</v>
       </c>
-      <c r="L69" s="6"/>
+      <c r="L69" s="7">
+        <v>550</v>
+      </c>
     </row>
     <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -5275,7 +5393,9 @@
       <c r="K70" s="7">
         <v>1600</v>
       </c>
-      <c r="L70" s="6"/>
+      <c r="L70" s="7">
+        <v>500</v>
+      </c>
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
@@ -5309,7 +5429,9 @@
       <c r="K71" s="7">
         <v>1506</v>
       </c>
-      <c r="L71" s="6"/>
+      <c r="L71" s="7">
+        <v>441</v>
+      </c>
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
@@ -5343,7 +5465,9 @@
       <c r="K72" s="7">
         <v>1432</v>
       </c>
-      <c r="L72" s="6"/>
+      <c r="L72" s="7">
+        <v>441</v>
+      </c>
     </row>
     <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
@@ -5379,7 +5503,9 @@
       <c r="K73" s="7">
         <v>1504</v>
       </c>
-      <c r="L73" s="6"/>
+      <c r="L73" s="7">
+        <v>463</v>
+      </c>
     </row>
     <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
@@ -5415,7 +5541,9 @@
       <c r="K74" s="7">
         <v>1336</v>
       </c>
-      <c r="L74" s="6"/>
+      <c r="L74" s="7">
+        <v>451</v>
+      </c>
     </row>
     <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -5451,7 +5579,9 @@
       <c r="K75" s="7">
         <v>1252</v>
       </c>
-      <c r="L75" s="6"/>
+      <c r="L75" s="7">
+        <v>431</v>
+      </c>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
@@ -5487,7 +5617,9 @@
       <c r="K76" s="7">
         <v>1440</v>
       </c>
-      <c r="L76" s="6"/>
+      <c r="L76" s="7">
+        <v>453</v>
+      </c>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
@@ -5523,7 +5655,9 @@
       <c r="K77" s="7">
         <v>1594</v>
       </c>
-      <c r="L77" s="6"/>
+      <c r="L77" s="7">
+        <v>502</v>
+      </c>
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -5559,7 +5693,9 @@
       <c r="K78" s="7">
         <v>1612</v>
       </c>
-      <c r="L78" s="6"/>
+      <c r="L78" s="7">
+        <v>495</v>
+      </c>
     </row>
     <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -5595,7 +5731,9 @@
       <c r="K79" s="7">
         <v>1614</v>
       </c>
-      <c r="L79" s="6"/>
+      <c r="L79" s="7">
+        <v>498</v>
+      </c>
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
@@ -5631,7 +5769,9 @@
       <c r="K80" s="7">
         <v>1778</v>
       </c>
-      <c r="L80" s="6"/>
+      <c r="L80" s="7">
+        <v>540</v>
+      </c>
     </row>
     <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
@@ -5667,7 +5807,9 @@
       <c r="K81" s="7">
         <v>1856</v>
       </c>
-      <c r="L81" s="6"/>
+      <c r="L81" s="7">
+        <v>559</v>
+      </c>
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
@@ -5703,7 +5845,9 @@
       <c r="K82" s="7">
         <v>2020</v>
       </c>
-      <c r="L82" s="6"/>
+      <c r="L82" s="7">
+        <v>565</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
@@ -5739,7 +5883,9 @@
       <c r="K83" s="7">
         <v>1926</v>
       </c>
-      <c r="L83" s="6"/>
+      <c r="L83" s="7">
+        <v>569</v>
+      </c>
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -5775,7 +5921,9 @@
       <c r="K84" s="7">
         <v>2060</v>
       </c>
-      <c r="L84" s="6"/>
+      <c r="L84" s="7">
+        <v>599</v>
+      </c>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
@@ -5811,7 +5959,9 @@
       <c r="K85" s="7">
         <v>2120</v>
       </c>
-      <c r="L85" s="6"/>
+      <c r="L85" s="7">
+        <v>627</v>
+      </c>
     </row>
     <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
@@ -5847,7 +5997,9 @@
       <c r="K86" s="7">
         <v>2020</v>
       </c>
-      <c r="L86" s="6"/>
+      <c r="L86" s="7">
+        <v>589</v>
+      </c>
     </row>
     <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
@@ -5883,7 +6035,9 @@
       <c r="K87" s="7">
         <v>1898</v>
       </c>
-      <c r="L87" s="6"/>
+      <c r="L87" s="7">
+        <v>600</v>
+      </c>
     </row>
     <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -5919,7 +6073,9 @@
       <c r="K88" s="7">
         <v>1822</v>
       </c>
-      <c r="L88" s="6"/>
+      <c r="L88" s="7">
+        <v>567</v>
+      </c>
     </row>
     <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
@@ -5955,7 +6111,9 @@
       <c r="K89" s="7">
         <v>1786</v>
       </c>
-      <c r="L89" s="6"/>
+      <c r="L89" s="7">
+        <v>528</v>
+      </c>
     </row>
     <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
@@ -5991,7 +6149,9 @@
       <c r="K90" s="7">
         <v>1882</v>
       </c>
-      <c r="L90" s="6"/>
+      <c r="L90" s="7">
+        <v>580</v>
+      </c>
     </row>
     <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
@@ -6027,7 +6187,9 @@
       <c r="K91" s="7">
         <v>1786</v>
       </c>
-      <c r="L91" s="6"/>
+      <c r="L91" s="7">
+        <v>527</v>
+      </c>
     </row>
     <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
@@ -6063,7 +6225,9 @@
       <c r="K92" s="7">
         <v>1670</v>
       </c>
-      <c r="L92" s="6"/>
+      <c r="L92" s="7">
+        <v>515</v>
+      </c>
     </row>
     <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
@@ -6099,7 +6263,9 @@
       <c r="K93" s="7">
         <v>1562</v>
       </c>
-      <c r="L93" s="6"/>
+      <c r="L93" s="7">
+        <v>498</v>
+      </c>
     </row>
     <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
@@ -6135,7 +6301,9 @@
       <c r="K94" s="7">
         <v>1502</v>
       </c>
-      <c r="L94" s="6"/>
+      <c r="L94" s="7">
+        <v>480</v>
+      </c>
     </row>
     <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
@@ -6171,7 +6339,9 @@
       <c r="K95" s="7">
         <v>1670</v>
       </c>
-      <c r="L95" s="6"/>
+      <c r="L95" s="7">
+        <v>472</v>
+      </c>
     </row>
     <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
@@ -6207,7 +6377,9 @@
       <c r="K96" s="7">
         <v>1494</v>
       </c>
-      <c r="L96" s="6"/>
+      <c r="L96" s="7">
+        <v>480</v>
+      </c>
     </row>
     <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
@@ -6243,7 +6415,9 @@
       <c r="K97" s="7">
         <v>1700</v>
       </c>
-      <c r="L97" s="6"/>
+      <c r="L97" s="7">
+        <v>471</v>
+      </c>
     </row>
     <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -6279,7 +6453,9 @@
       <c r="K98" s="7">
         <v>1622</v>
       </c>
-      <c r="L98" s="6"/>
+      <c r="L98" s="7">
+        <v>495</v>
+      </c>
     </row>
     <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
@@ -6315,7 +6491,9 @@
       <c r="K99" s="7">
         <v>1620</v>
       </c>
-      <c r="L99" s="6"/>
+      <c r="L99" s="7">
+        <v>520</v>
+      </c>
     </row>
     <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
@@ -6351,7 +6529,9 @@
       <c r="K100" s="7">
         <v>1366</v>
       </c>
-      <c r="L100" s="6"/>
+      <c r="L100" s="7">
+        <v>494</v>
+      </c>
     </row>
     <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
@@ -6387,7 +6567,9 @@
       <c r="K101" s="7">
         <v>1436</v>
       </c>
-      <c r="L101" s="6"/>
+      <c r="L101" s="7">
+        <v>437</v>
+      </c>
     </row>
     <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
@@ -6423,7 +6605,9 @@
       <c r="K102" s="7">
         <v>1292</v>
       </c>
-      <c r="L102" s="6"/>
+      <c r="L102" s="7">
+        <v>400</v>
+      </c>
     </row>
     <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
@@ -6459,7 +6643,9 @@
       <c r="K103" s="7">
         <v>1214</v>
       </c>
-      <c r="L103" s="6"/>
+      <c r="L103" s="7">
+        <v>376</v>
+      </c>
     </row>
     <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
@@ -6495,7 +6681,9 @@
       <c r="K104" s="7">
         <v>1016</v>
       </c>
-      <c r="L104" s="6"/>
+      <c r="L104" s="7">
+        <v>319</v>
+      </c>
     </row>
     <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
@@ -6531,7 +6719,9 @@
       <c r="K105" s="7">
         <v>860</v>
       </c>
-      <c r="L105" s="6"/>
+      <c r="L105" s="7">
+        <v>229</v>
+      </c>
     </row>
     <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
@@ -6567,7 +6757,9 @@
       <c r="K106" s="7">
         <v>988</v>
       </c>
-      <c r="L106" s="6"/>
+      <c r="L106" s="7">
+        <v>318</v>
+      </c>
     </row>
     <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
@@ -6603,7 +6795,9 @@
       <c r="K107" s="7">
         <v>1098</v>
       </c>
-      <c r="L107" s="6"/>
+      <c r="L107" s="7">
+        <v>349</v>
+      </c>
     </row>
     <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -6639,7 +6833,9 @@
       <c r="K108" s="7">
         <v>1040</v>
       </c>
-      <c r="L108" s="6"/>
+      <c r="L108" s="7">
+        <v>351</v>
+      </c>
     </row>
     <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
@@ -6675,7 +6871,9 @@
       <c r="K109" s="7">
         <v>1096</v>
       </c>
-      <c r="L109" s="6"/>
+      <c r="L109" s="7">
+        <v>302</v>
+      </c>
     </row>
     <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
@@ -6711,7 +6909,9 @@
       <c r="K110" s="7">
         <v>1176</v>
       </c>
-      <c r="L110" s="6"/>
+      <c r="L110" s="7">
+        <v>280</v>
+      </c>
     </row>
     <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
@@ -6747,7 +6947,9 @@
       <c r="K111" s="7">
         <v>1126</v>
       </c>
-      <c r="L111" s="6"/>
+      <c r="L111" s="7">
+        <v>277</v>
+      </c>
     </row>
     <row r="112" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
@@ -6783,7 +6985,9 @@
       <c r="K112" s="7">
         <v>1174</v>
       </c>
-      <c r="L112" s="6"/>
+      <c r="L112" s="7">
+        <v>300</v>
+      </c>
     </row>
     <row r="113" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
@@ -6819,7 +7023,9 @@
       <c r="K113" s="7">
         <v>892</v>
       </c>
-      <c r="L113" s="6"/>
+      <c r="L113" s="7">
+        <v>233</v>
+      </c>
     </row>
     <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
@@ -6855,7 +7061,9 @@
       <c r="K114" s="7">
         <v>862</v>
       </c>
-      <c r="L114" s="6"/>
+      <c r="L114" s="7">
+        <v>161</v>
+      </c>
     </row>
     <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
@@ -6891,7 +7099,9 @@
       <c r="K115" s="7">
         <v>778</v>
       </c>
-      <c r="L115" s="6"/>
+      <c r="L115" s="7">
+        <v>214</v>
+      </c>
     </row>
     <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
@@ -6927,7 +7137,9 @@
       <c r="K116" s="7">
         <v>888</v>
       </c>
-      <c r="L116" s="6"/>
+      <c r="L116" s="7">
+        <v>224</v>
+      </c>
     </row>
     <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
@@ -6963,7 +7175,9 @@
       <c r="K117" s="7">
         <v>734</v>
       </c>
-      <c r="L117" s="6"/>
+      <c r="L117" s="7">
+        <v>194</v>
+      </c>
     </row>
     <row r="118" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -6999,7 +7213,9 @@
       <c r="K118" s="7">
         <v>770</v>
       </c>
-      <c r="L118" s="6"/>
+      <c r="L118" s="7">
+        <v>199</v>
+      </c>
     </row>
     <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
@@ -7035,7 +7251,9 @@
       <c r="K119" s="7">
         <v>866</v>
       </c>
-      <c r="L119" s="6"/>
+      <c r="L119" s="7">
+        <v>197</v>
+      </c>
     </row>
     <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
@@ -7071,7 +7289,9 @@
       <c r="K120" s="7">
         <v>1010</v>
       </c>
-      <c r="L120" s="6"/>
+      <c r="L120" s="7">
+        <v>225</v>
+      </c>
     </row>
     <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
@@ -7107,7 +7327,9 @@
       <c r="K121" s="7">
         <v>1084</v>
       </c>
-      <c r="L121" s="6"/>
+      <c r="L121" s="7">
+        <v>276</v>
+      </c>
     </row>
     <row r="122" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
@@ -7143,7 +7365,9 @@
       <c r="K122" s="7">
         <v>1074</v>
       </c>
-      <c r="L122" s="6"/>
+      <c r="L122" s="7">
+        <v>257</v>
+      </c>
     </row>
     <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
@@ -7179,7 +7403,9 @@
       <c r="K123" s="7">
         <v>1000</v>
       </c>
-      <c r="L123" s="6"/>
+      <c r="L123" s="7">
+        <v>253</v>
+      </c>
     </row>
     <row r="124" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
@@ -7215,7 +7441,9 @@
       <c r="K124" s="7">
         <v>1076</v>
       </c>
-      <c r="L124" s="6"/>
+      <c r="L124" s="7">
+        <v>253</v>
+      </c>
     </row>
     <row r="125" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
@@ -7251,7 +7479,9 @@
       <c r="K125" s="7">
         <v>852</v>
       </c>
-      <c r="L125" s="6"/>
+      <c r="L125" s="7">
+        <v>259</v>
+      </c>
     </row>
     <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
@@ -7287,7 +7517,9 @@
       <c r="K126" s="7">
         <v>1054</v>
       </c>
-      <c r="L126" s="6"/>
+      <c r="L126" s="7">
+        <v>276</v>
+      </c>
     </row>
     <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
@@ -7323,7 +7555,9 @@
       <c r="K127" s="7">
         <v>630</v>
       </c>
-      <c r="L127" s="6"/>
+      <c r="L127" s="7">
+        <v>332</v>
+      </c>
     </row>
     <row r="128" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -7359,7 +7593,9 @@
       <c r="K128" s="7">
         <v>466</v>
       </c>
-      <c r="L128" s="6"/>
+      <c r="L128" s="7">
+        <v>397</v>
+      </c>
     </row>
     <row r="129" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
@@ -7395,7 +7631,9 @@
       <c r="K129" s="7">
         <v>456</v>
       </c>
-      <c r="L129" s="6"/>
+      <c r="L129" s="7">
+        <v>429</v>
+      </c>
     </row>
     <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
@@ -7431,7 +7669,9 @@
       <c r="K130" s="7">
         <v>548</v>
       </c>
-      <c r="L130" s="6"/>
+      <c r="L130" s="7">
+        <v>422</v>
+      </c>
     </row>
     <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
@@ -7467,7 +7707,9 @@
       <c r="K131" s="7">
         <v>520</v>
       </c>
-      <c r="L131" s="6"/>
+      <c r="L131" s="7">
+        <v>447</v>
+      </c>
     </row>
     <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
@@ -7503,7 +7745,9 @@
       <c r="K132" s="7">
         <v>614</v>
       </c>
-      <c r="L132" s="6"/>
+      <c r="L132" s="7">
+        <v>387</v>
+      </c>
     </row>
     <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
@@ -7539,7 +7783,9 @@
       <c r="K133" s="7">
         <v>662</v>
       </c>
-      <c r="L133" s="6"/>
+      <c r="L133" s="7">
+        <v>313</v>
+      </c>
     </row>
     <row r="134" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
@@ -7575,7 +7821,9 @@
       <c r="K134" s="7">
         <v>910</v>
       </c>
-      <c r="L134" s="6"/>
+      <c r="L134" s="7">
+        <v>286</v>
+      </c>
     </row>
     <row r="135" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
@@ -7611,7 +7859,9 @@
       <c r="K135" s="7">
         <v>1000</v>
       </c>
-      <c r="L135" s="6"/>
+      <c r="L135" s="7">
+        <v>365</v>
+      </c>
     </row>
     <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
@@ -7647,7 +7897,9 @@
       <c r="K136" s="7">
         <v>842</v>
       </c>
-      <c r="L136" s="6"/>
+      <c r="L136" s="7">
+        <v>296</v>
+      </c>
     </row>
     <row r="137" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
@@ -7683,7 +7935,9 @@
       <c r="K137" s="7">
         <v>1170</v>
       </c>
-      <c r="L137" s="6"/>
+      <c r="L137" s="7">
+        <v>295</v>
+      </c>
     </row>
     <row r="138" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -7719,7 +7973,9 @@
       <c r="K138" s="7">
         <v>1194</v>
       </c>
-      <c r="L138" s="6"/>
+      <c r="L138" s="7">
+        <v>271</v>
+      </c>
     </row>
     <row r="139" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
@@ -7755,7 +8011,9 @@
       <c r="K139" s="7">
         <v>1126</v>
       </c>
-      <c r="L139" s="6"/>
+      <c r="L139" s="7">
+        <v>255</v>
+      </c>
     </row>
     <row r="140" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
@@ -7791,7 +8049,9 @@
       <c r="K140" s="7">
         <v>1108</v>
       </c>
-      <c r="L140" s="6"/>
+      <c r="L140" s="7">
+        <v>264</v>
+      </c>
     </row>
     <row r="141" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
@@ -7827,7 +8087,9 @@
       <c r="K141" s="7">
         <v>1196</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="7">
+        <v>270</v>
+      </c>
     </row>
     <row r="142" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
@@ -7863,7 +8125,9 @@
       <c r="K142" s="7">
         <v>962</v>
       </c>
-      <c r="L142" s="6"/>
+      <c r="L142" s="7">
+        <v>241</v>
+      </c>
     </row>
     <row r="143" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
@@ -7899,7 +8163,9 @@
       <c r="K143" s="7">
         <v>916</v>
       </c>
-      <c r="L143" s="6"/>
+      <c r="L143" s="7">
+        <v>233</v>
+      </c>
     </row>
     <row r="144" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
@@ -7935,7 +8201,9 @@
       <c r="K144" s="7">
         <v>958</v>
       </c>
-      <c r="L144" s="6"/>
+      <c r="L144" s="7">
+        <v>224</v>
+      </c>
     </row>
     <row r="145" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
@@ -7971,7 +8239,9 @@
       <c r="K145" s="7">
         <v>1004</v>
       </c>
-      <c r="L145" s="6"/>
+      <c r="L145" s="7">
+        <v>258</v>
+      </c>
     </row>
     <row r="146" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
@@ -8007,7 +8277,9 @@
       <c r="K146" s="7">
         <v>1156</v>
       </c>
-      <c r="L146" s="6"/>
+      <c r="L146" s="7">
+        <v>225</v>
+      </c>
     </row>
     <row r="147" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
@@ -8043,7 +8315,9 @@
       <c r="K147" s="7">
         <v>1166</v>
       </c>
-      <c r="L147" s="6"/>
+      <c r="L147" s="7">
+        <v>240</v>
+      </c>
     </row>
     <row r="148" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
@@ -8079,7 +8353,9 @@
       <c r="K148" s="7">
         <v>934</v>
       </c>
-      <c r="L148" s="6"/>
+      <c r="L148" s="7">
+        <v>192</v>
+      </c>
     </row>
     <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
@@ -8115,7 +8391,9 @@
       <c r="K149" s="7">
         <v>866</v>
       </c>
-      <c r="L149" s="6"/>
+      <c r="L149" s="7">
+        <v>181</v>
+      </c>
     </row>
     <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
@@ -8151,7 +8429,9 @@
       <c r="K150" s="7">
         <v>700</v>
       </c>
-      <c r="L150" s="6"/>
+      <c r="L150" s="7">
+        <v>131</v>
+      </c>
     </row>
     <row r="151" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
@@ -8187,7 +8467,9 @@
       <c r="K151" s="7">
         <v>800</v>
       </c>
-      <c r="L151" s="6"/>
+      <c r="L151" s="7">
+        <v>136</v>
+      </c>
     </row>
     <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
@@ -8223,7 +8505,9 @@
       <c r="K152" s="7">
         <v>858</v>
       </c>
-      <c r="L152" s="6"/>
+      <c r="L152" s="7">
+        <v>105</v>
+      </c>
     </row>
     <row r="153" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
@@ -8259,7 +8543,9 @@
       <c r="K153" s="7">
         <v>874</v>
       </c>
-      <c r="L153" s="6"/>
+      <c r="L153" s="7">
+        <v>79</v>
+      </c>
     </row>
     <row r="154" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
@@ -8295,7 +8581,9 @@
       <c r="K154" s="7">
         <v>974</v>
       </c>
-      <c r="L154" s="6"/>
+      <c r="L154" s="7">
+        <v>79</v>
+      </c>
     </row>
     <row r="155" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
@@ -8331,7 +8619,9 @@
       <c r="K155" s="7">
         <v>1026</v>
       </c>
-      <c r="L155" s="6"/>
+      <c r="L155" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="156" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
@@ -8367,7 +8657,9 @@
       <c r="K156" s="7">
         <v>1028</v>
       </c>
-      <c r="L156" s="6"/>
+      <c r="L156" s="7">
+        <v>95</v>
+      </c>
     </row>
     <row r="157" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
@@ -8403,7 +8695,9 @@
       <c r="K157" s="7">
         <v>1122</v>
       </c>
-      <c r="L157" s="6"/>
+      <c r="L157" s="7">
+        <v>91</v>
+      </c>
     </row>
     <row r="158" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -8439,7 +8733,9 @@
       <c r="K158" s="7">
         <v>1170</v>
       </c>
-      <c r="L158" s="6"/>
+      <c r="L158" s="7">
+        <v>133</v>
+      </c>
     </row>
     <row r="159" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
@@ -8475,7 +8771,9 @@
       <c r="K159" s="7">
         <v>1084</v>
       </c>
-      <c r="L159" s="6"/>
+      <c r="L159" s="7">
+        <v>123</v>
+      </c>
     </row>
     <row r="160" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
@@ -8511,7 +8809,9 @@
       <c r="K160" s="7">
         <v>1032</v>
       </c>
-      <c r="L160" s="6"/>
+      <c r="L160" s="7">
+        <v>127</v>
+      </c>
     </row>
     <row r="161" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
@@ -8547,7 +8847,9 @@
       <c r="K161" s="7">
         <v>984</v>
       </c>
-      <c r="L161" s="6"/>
+      <c r="L161" s="7">
+        <v>143</v>
+      </c>
     </row>
     <row r="162" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
@@ -8583,7 +8885,9 @@
       <c r="K162" s="7">
         <v>1004</v>
       </c>
-      <c r="L162" s="6"/>
+      <c r="L162" s="7">
+        <v>147</v>
+      </c>
     </row>
     <row r="163" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
@@ -8619,7 +8923,9 @@
       <c r="K163" s="7">
         <v>818</v>
       </c>
-      <c r="L163" s="6"/>
+      <c r="L163" s="7">
+        <v>123</v>
+      </c>
     </row>
     <row r="164" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
@@ -8655,7 +8961,9 @@
       <c r="K164" s="7">
         <v>818</v>
       </c>
-      <c r="L164" s="6"/>
+      <c r="L164" s="7">
+        <v>113</v>
+      </c>
     </row>
     <row r="165" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
@@ -8691,7 +8999,9 @@
       <c r="K165" s="7">
         <v>990</v>
       </c>
-      <c r="L165" s="6"/>
+      <c r="L165" s="7">
+        <v>109</v>
+      </c>
     </row>
     <row r="166" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
@@ -8727,7 +9037,9 @@
       <c r="K166" s="7">
         <v>910</v>
       </c>
-      <c r="L166" s="6"/>
+      <c r="L166" s="7">
+        <v>119</v>
+      </c>
     </row>
     <row r="167" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
@@ -8763,7 +9075,9 @@
       <c r="K167" s="7">
         <v>878</v>
       </c>
-      <c r="L167" s="6"/>
+      <c r="L167" s="7">
+        <v>116</v>
+      </c>
     </row>
     <row r="168" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
@@ -8799,7 +9113,9 @@
       <c r="K168" s="7">
         <v>744</v>
       </c>
-      <c r="L168" s="6"/>
+      <c r="L168" s="7">
+        <v>111</v>
+      </c>
     </row>
     <row r="169" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
@@ -8835,7 +9151,9 @@
       <c r="K169" s="7">
         <v>718</v>
       </c>
-      <c r="L169" s="6"/>
+      <c r="L169" s="7">
+        <v>113</v>
+      </c>
     </row>
     <row r="170" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
@@ -8871,7 +9189,9 @@
       <c r="K170" s="7">
         <v>898</v>
       </c>
-      <c r="L170" s="6"/>
+      <c r="L170" s="7">
+        <v>120</v>
+      </c>
     </row>
     <row r="171" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
@@ -8907,7 +9227,9 @@
       <c r="K171" s="7">
         <v>920</v>
       </c>
-      <c r="L171" s="6"/>
+      <c r="L171" s="7">
+        <v>156</v>
+      </c>
     </row>
     <row r="172" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
@@ -8943,7 +9265,9 @@
       <c r="K172" s="7">
         <v>904</v>
       </c>
-      <c r="L172" s="6"/>
+      <c r="L172" s="7">
+        <v>150</v>
+      </c>
     </row>
     <row r="173" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
@@ -8979,7 +9303,9 @@
       <c r="K173" s="7">
         <v>1062</v>
       </c>
-      <c r="L173" s="6"/>
+      <c r="L173" s="7">
+        <v>176</v>
+      </c>
     </row>
     <row r="174" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
@@ -9015,7 +9341,9 @@
       <c r="K174" s="7">
         <v>1140</v>
       </c>
-      <c r="L174" s="6"/>
+      <c r="L174" s="7">
+        <v>174</v>
+      </c>
     </row>
     <row r="175" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
@@ -9051,7 +9379,9 @@
       <c r="K175" s="7">
         <v>1508</v>
       </c>
-      <c r="L175" s="6"/>
+      <c r="L175" s="7">
+        <v>198</v>
+      </c>
     </row>
     <row r="176" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
@@ -9087,7 +9417,9 @@
       <c r="K176" s="7">
         <v>1384</v>
       </c>
-      <c r="L176" s="6"/>
+      <c r="L176" s="7">
+        <v>180</v>
+      </c>
     </row>
     <row r="177" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
@@ -9123,7 +9455,9 @@
       <c r="K177" s="7">
         <v>1590</v>
       </c>
-      <c r="L177" s="6"/>
+      <c r="L177" s="7">
+        <v>205</v>
+      </c>
     </row>
     <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -9159,7 +9493,9 @@
       <c r="K178" s="7">
         <v>1426</v>
       </c>
-      <c r="L178" s="6"/>
+      <c r="L178" s="7">
+        <v>204</v>
+      </c>
     </row>
     <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
@@ -9195,7 +9531,9 @@
       <c r="K179" s="7">
         <v>1352</v>
       </c>
-      <c r="L179" s="6"/>
+      <c r="L179" s="7">
+        <v>220</v>
+      </c>
     </row>
     <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
@@ -9231,7 +9569,9 @@
       <c r="K180" s="7">
         <v>1508</v>
       </c>
-      <c r="L180" s="6"/>
+      <c r="L180" s="7">
+        <v>283</v>
+      </c>
     </row>
     <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
@@ -9267,7 +9607,9 @@
       <c r="K181" s="7">
         <v>1342</v>
       </c>
-      <c r="L181" s="6"/>
+      <c r="L181" s="7">
+        <v>278</v>
+      </c>
     </row>
     <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
@@ -9303,7 +9645,9 @@
       <c r="K182" s="7">
         <v>1326</v>
       </c>
-      <c r="L182" s="6"/>
+      <c r="L182" s="7">
+        <v>253</v>
+      </c>
     </row>
     <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
@@ -9339,7 +9683,9 @@
       <c r="K183" s="7">
         <v>1424</v>
       </c>
-      <c r="L183" s="6"/>
+      <c r="L183" s="7">
+        <v>268</v>
+      </c>
     </row>
     <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
@@ -9375,7 +9721,9 @@
       <c r="K184" s="7">
         <v>1330</v>
       </c>
-      <c r="L184" s="6"/>
+      <c r="L184" s="7">
+        <v>252</v>
+      </c>
     </row>
     <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
@@ -9411,7 +9759,9 @@
       <c r="K185" s="7">
         <v>1434</v>
       </c>
-      <c r="L185" s="6"/>
+      <c r="L185" s="7">
+        <v>261</v>
+      </c>
     </row>
     <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
@@ -9447,7 +9797,9 @@
       <c r="K186" s="7">
         <v>1528</v>
       </c>
-      <c r="L186" s="6"/>
+      <c r="L186" s="7">
+        <v>292</v>
+      </c>
     </row>
     <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
@@ -9483,7 +9835,9 @@
       <c r="K187" s="7">
         <v>1430</v>
       </c>
-      <c r="L187" s="6"/>
+      <c r="L187" s="7">
+        <v>278</v>
+      </c>
     </row>
     <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
@@ -9519,7 +9873,9 @@
       <c r="K188" s="7">
         <v>1544</v>
       </c>
-      <c r="L188" s="6"/>
+      <c r="L188" s="7">
+        <v>292</v>
+      </c>
     </row>
     <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
@@ -9555,7 +9911,9 @@
       <c r="K189" s="7">
         <v>1464</v>
       </c>
-      <c r="L189" s="6"/>
+      <c r="L189" s="7">
+        <v>284</v>
+      </c>
     </row>
     <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
@@ -9591,7 +9949,9 @@
       <c r="K190" s="7">
         <v>1424</v>
       </c>
-      <c r="L190" s="6"/>
+      <c r="L190" s="7">
+        <v>302</v>
+      </c>
     </row>
     <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
@@ -9627,7 +9987,9 @@
       <c r="K191" s="7">
         <v>1594</v>
       </c>
-      <c r="L191" s="6"/>
+      <c r="L191" s="7">
+        <v>336</v>
+      </c>
     </row>
     <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
@@ -9663,7 +10025,9 @@
       <c r="K192" s="7">
         <v>1614</v>
       </c>
-      <c r="L192" s="6"/>
+      <c r="L192" s="7">
+        <v>344</v>
+      </c>
     </row>
     <row r="193" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
@@ -9699,7 +10063,9 @@
       <c r="K193" s="7">
         <v>1474</v>
       </c>
-      <c r="L193" s="6"/>
+      <c r="L193" s="7">
+        <v>342</v>
+      </c>
     </row>
     <row r="194" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
@@ -9735,7 +10101,9 @@
       <c r="K194" s="7">
         <v>1398</v>
       </c>
-      <c r="L194" s="6"/>
+      <c r="L194" s="7">
+        <v>345</v>
+      </c>
     </row>
     <row r="195" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
@@ -9771,7 +10139,9 @@
       <c r="K195" s="7">
         <v>1522</v>
       </c>
-      <c r="L195" s="6"/>
+      <c r="L195" s="7">
+        <v>381</v>
+      </c>
     </row>
     <row r="196" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
@@ -9807,7 +10177,9 @@
       <c r="K196" s="7">
         <v>1554</v>
       </c>
-      <c r="L196" s="6"/>
+      <c r="L196" s="7">
+        <v>418</v>
+      </c>
     </row>
     <row r="197" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
@@ -9843,7 +10215,9 @@
       <c r="K197" s="7">
         <v>1672</v>
       </c>
-      <c r="L197" s="6"/>
+      <c r="L197" s="7">
+        <v>460</v>
+      </c>
     </row>
     <row r="198" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -9879,7 +10253,9 @@
       <c r="K198" s="7">
         <v>2104</v>
       </c>
-      <c r="L198" s="6"/>
+      <c r="L198" s="7">
+        <v>528</v>
+      </c>
     </row>
     <row r="199" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
@@ -9915,7 +10291,9 @@
       <c r="K199" s="7">
         <v>2108</v>
       </c>
-      <c r="L199" s="6"/>
+      <c r="L199" s="7">
+        <v>542</v>
+      </c>
     </row>
     <row r="200" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
@@ -9951,7 +10329,9 @@
       <c r="K200" s="7">
         <v>2416</v>
       </c>
-      <c r="L200" s="6"/>
+      <c r="L200" s="7">
+        <v>595</v>
+      </c>
     </row>
     <row r="201" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
@@ -9987,7 +10367,9 @@
       <c r="K201" s="7">
         <v>2918</v>
       </c>
-      <c r="L201" s="6"/>
+      <c r="L201" s="7">
+        <v>633</v>
+      </c>
     </row>
     <row r="202" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
@@ -10023,7 +10405,9 @@
       <c r="K202" s="7">
         <v>3152</v>
       </c>
-      <c r="L202" s="6"/>
+      <c r="L202" s="7">
+        <v>626</v>
+      </c>
     </row>
     <row r="203" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
@@ -10059,7 +10443,9 @@
       <c r="K203" s="7">
         <v>3118</v>
       </c>
-      <c r="L203" s="6"/>
+      <c r="L203" s="7">
+        <v>581</v>
+      </c>
     </row>
     <row r="204" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
@@ -10095,7 +10481,9 @@
       <c r="K204" s="7">
         <v>3284</v>
       </c>
-      <c r="L204" s="6"/>
+      <c r="L204" s="7">
+        <v>616</v>
+      </c>
     </row>
     <row r="205" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
@@ -10131,7 +10519,9 @@
       <c r="K205" s="7">
         <v>3310</v>
       </c>
-      <c r="L205" s="6"/>
+      <c r="L205" s="7">
+        <v>656</v>
+      </c>
     </row>
     <row r="206" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
@@ -10167,7 +10557,9 @@
       <c r="K206" s="7">
         <v>2932</v>
       </c>
-      <c r="L206" s="6"/>
+      <c r="L206" s="7">
+        <v>607</v>
+      </c>
     </row>
     <row r="207" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
@@ -10203,7 +10595,9 @@
       <c r="K207" s="7">
         <v>2984</v>
       </c>
-      <c r="L207" s="6"/>
+      <c r="L207" s="7">
+        <v>610</v>
+      </c>
     </row>
     <row r="208" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
@@ -10239,7 +10633,9 @@
       <c r="K208" s="7">
         <v>3234</v>
       </c>
-      <c r="L208" s="6"/>
+      <c r="L208" s="7">
+        <v>609</v>
+      </c>
     </row>
     <row r="209" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
@@ -10275,7 +10671,9 @@
       <c r="K209" s="7">
         <v>3310</v>
       </c>
-      <c r="L209" s="6"/>
+      <c r="L209" s="7">
+        <v>627</v>
+      </c>
     </row>
     <row r="210" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
@@ -10311,7 +10709,9 @@
       <c r="K210" s="7">
         <v>3096</v>
       </c>
-      <c r="L210" s="6"/>
+      <c r="L210" s="7">
+        <v>588</v>
+      </c>
     </row>
     <row r="211" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
@@ -10348,7 +10748,7 @@
         <v>3074</v>
       </c>
       <c r="L211" s="7">
-        <v>2845</v>
+        <v>599</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10386,7 +10786,7 @@
         <v>3028</v>
       </c>
       <c r="L212" s="7">
-        <v>3075</v>
+        <v>589</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10424,7 +10824,7 @@
         <v>3054</v>
       </c>
       <c r="L213" s="7">
-        <v>2995</v>
+        <v>604</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10461,8 +10861,8 @@
       <c r="K214" s="7">
         <v>3148</v>
       </c>
-      <c r="L214" s="9">
-        <v>2997.5</v>
+      <c r="L214" s="7">
+        <v>650</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10499,8 +10899,8 @@
       <c r="K215" s="7">
         <v>4230</v>
       </c>
-      <c r="L215" s="9">
-        <v>3342.5</v>
+      <c r="L215" s="7">
+        <v>743</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10538,7 +10938,7 @@
         <v>4550</v>
       </c>
       <c r="L216" s="7">
-        <v>3435</v>
+        <v>716</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10576,7 +10976,7 @@
         <v>4480</v>
       </c>
       <c r="L217" s="7">
-        <v>3915</v>
+        <v>724</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10613,8 +11013,8 @@
       <c r="K218" s="7">
         <v>5550</v>
       </c>
-      <c r="L218" s="9">
-        <v>3497.5</v>
+      <c r="L218" s="7">
+        <v>851</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10652,7 +11052,7 @@
         <v>5350</v>
       </c>
       <c r="L219" s="7">
-        <v>3450</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="220" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10690,7 +11090,7 @@
         <v>5820</v>
       </c>
       <c r="L220" s="7">
-        <v>3540</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10728,7 +11128,7 @@
         <v>4600</v>
       </c>
       <c r="L221" s="7">
-        <v>3170</v>
+        <v>945</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10765,8 +11165,8 @@
       <c r="K222" s="7">
         <v>5580</v>
       </c>
-      <c r="L222" s="9">
-        <v>3232.5</v>
+      <c r="L222" s="7">
+        <v>1054</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10804,7 +11204,7 @@
         <v>5080</v>
       </c>
       <c r="L223" s="7">
-        <v>3325</v>
+        <v>978</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10842,7 +11242,7 @@
         <v>4560</v>
       </c>
       <c r="L224" s="7">
-        <v>3120</v>
+        <v>845</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10879,8 +11279,8 @@
       <c r="K225" s="7">
         <v>3820</v>
       </c>
-      <c r="L225" s="9">
-        <v>2962.5</v>
+      <c r="L225" s="7">
+        <v>793</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10917,8 +11317,8 @@
       <c r="K226" s="7">
         <v>3476</v>
       </c>
-      <c r="L226" s="9">
-        <v>2282.5</v>
+      <c r="L226" s="7">
+        <v>728</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10955,8 +11355,8 @@
       <c r="K227" s="7">
         <v>4510</v>
       </c>
-      <c r="L227" s="9">
-        <v>2162.5</v>
+      <c r="L227" s="7">
+        <v>811</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10993,8 +11393,8 @@
       <c r="K228" s="7">
         <v>3710</v>
       </c>
-      <c r="L228" s="9">
-        <v>1927.5</v>
+      <c r="L228" s="7">
+        <v>726</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11032,7 +11432,7 @@
         <v>3782</v>
       </c>
       <c r="L229" s="7">
-        <v>2215</v>
+        <v>829</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11070,7 +11470,7 @@
         <v>3538</v>
       </c>
       <c r="L230" s="7">
-        <v>2825</v>
+        <v>940</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11108,7 +11508,7 @@
         <v>3256</v>
       </c>
       <c r="L231" s="7">
-        <v>2355</v>
+        <v>887</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11145,8 +11545,8 @@
       <c r="K232" s="7">
         <v>2792</v>
       </c>
-      <c r="L232" s="9">
-        <v>2367.5</v>
+      <c r="L232" s="7">
+        <v>793</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11184,7 +11584,7 @@
         <v>2804</v>
       </c>
       <c r="L233" s="7">
-        <v>2435</v>
+        <v>683</v>
       </c>
     </row>
     <row r="234" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11221,8 +11621,8 @@
       <c r="K234" s="7">
         <v>2082</v>
       </c>
-      <c r="L234" s="9">
-        <v>2117.5</v>
+      <c r="L234" s="7">
+        <v>468</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11259,8 +11659,8 @@
       <c r="K235" s="7">
         <v>1442</v>
       </c>
-      <c r="L235" s="9">
-        <v>1397.5</v>
+      <c r="L235" s="7">
+        <v>372</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11297,8 +11697,8 @@
       <c r="K236" s="7">
         <v>1816</v>
       </c>
-      <c r="L236" s="9">
-        <v>1482.5</v>
+      <c r="L236" s="7">
+        <v>334</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11336,7 +11736,7 @@
         <v>1884</v>
       </c>
       <c r="L237" s="7">
-        <v>1425</v>
+        <v>336</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11374,7 +11774,7 @@
         <v>1712</v>
       </c>
       <c r="L238" s="7">
-        <v>1485</v>
+        <v>327</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11412,7 +11812,7 @@
         <v>1980</v>
       </c>
       <c r="L239" s="7">
-        <v>1890</v>
+        <v>310</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11450,7 +11850,7 @@
         <v>1882</v>
       </c>
       <c r="L240" s="7">
-        <v>1845</v>
+        <v>305</v>
       </c>
     </row>
     <row r="241" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11487,8 +11887,8 @@
       <c r="K241" s="7">
         <v>2200</v>
       </c>
-      <c r="L241" s="9">
-        <v>1817.5</v>
+      <c r="L241" s="7">
+        <v>356</v>
       </c>
     </row>
     <row r="242" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11525,8 +11925,8 @@
       <c r="K242" s="7">
         <v>2696</v>
       </c>
-      <c r="L242" s="9">
-        <v>1992.5</v>
+      <c r="L242" s="7">
+        <v>431</v>
       </c>
     </row>
     <row r="243" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11564,7 +11964,7 @@
         <v>2726</v>
       </c>
       <c r="L243" s="7">
-        <v>2070</v>
+        <v>428</v>
       </c>
     </row>
     <row r="244" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11601,8 +12001,8 @@
       <c r="K244" s="7">
         <v>2850</v>
       </c>
-      <c r="L244" s="9">
-        <v>1977.5</v>
+      <c r="L244" s="7">
+        <v>437</v>
       </c>
     </row>
     <row r="245" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11639,8 +12039,8 @@
       <c r="K245" s="7">
         <v>2870</v>
       </c>
-      <c r="L245" s="9">
-        <v>1922.5</v>
+      <c r="L245" s="7">
+        <v>463</v>
       </c>
     </row>
     <row r="246" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11677,8 +12077,8 @@
       <c r="K246" s="7">
         <v>2948</v>
       </c>
-      <c r="L246" s="9">
-        <v>1852.5</v>
+      <c r="L246" s="7">
+        <v>453</v>
       </c>
     </row>
     <row r="247" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11716,7 +12116,7 @@
         <v>2916</v>
       </c>
       <c r="L247" s="7">
-        <v>1685</v>
+        <v>460</v>
       </c>
     </row>
     <row r="248" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11754,7 +12154,7 @@
         <v>2836</v>
       </c>
       <c r="L248" s="7">
-        <v>1325</v>
+        <v>456</v>
       </c>
     </row>
     <row r="249" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11792,7 +12192,7 @@
         <v>2758</v>
       </c>
       <c r="L249" s="7">
-        <v>1350</v>
+        <v>511</v>
       </c>
     </row>
     <row r="250" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11830,7 +12230,7 @@
         <v>2524</v>
       </c>
       <c r="L250" s="7">
-        <v>1445</v>
+        <v>527</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11868,7 +12268,7 @@
         <v>2524</v>
       </c>
       <c r="L251" s="7">
-        <v>1630</v>
+        <v>531</v>
       </c>
     </row>
     <row r="252" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11906,7 +12306,7 @@
         <v>2782</v>
       </c>
       <c r="L252" s="7">
-        <v>1770</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11943,8 +12343,8 @@
       <c r="K253" s="7">
         <v>2800</v>
       </c>
-      <c r="L253" s="9">
-        <v>1957.5</v>
+      <c r="L253" s="7">
+        <v>560</v>
       </c>
     </row>
     <row r="254" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11982,7 +12382,7 @@
         <v>2590</v>
       </c>
       <c r="L254" s="7">
-        <v>1705</v>
+        <v>507</v>
       </c>
     </row>
     <row r="255" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12020,7 +12420,7 @@
         <v>2240</v>
       </c>
       <c r="L255" s="7">
-        <v>1680</v>
+        <v>461</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12057,8 +12457,8 @@
       <c r="K256" s="7">
         <v>2300</v>
       </c>
-      <c r="L256" s="9">
-        <v>1607.5</v>
+      <c r="L256" s="7">
+        <v>464</v>
       </c>
     </row>
     <row r="257" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12096,7 +12496,7 @@
         <v>2150</v>
       </c>
       <c r="L257" s="7">
-        <v>1655</v>
+        <v>433</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12134,7 +12534,7 @@
         <v>2550</v>
       </c>
       <c r="L258" s="7">
-        <v>1790</v>
+        <v>472</v>
       </c>
     </row>
     <row r="259" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12171,8 +12571,8 @@
       <c r="K259" s="7">
         <v>2556</v>
       </c>
-      <c r="L259" s="9">
-        <v>1692.5</v>
+      <c r="L259" s="7">
+        <v>506</v>
       </c>
     </row>
     <row r="260" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12209,8 +12609,8 @@
       <c r="K260" s="7">
         <v>2602</v>
       </c>
-      <c r="L260" s="9">
-        <v>1947.5</v>
+      <c r="L260" s="7">
+        <v>543</v>
       </c>
     </row>
     <row r="261" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12248,7 +12648,7 @@
         <v>2838</v>
       </c>
       <c r="L261" s="7">
-        <v>2155</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12285,8 +12685,8 @@
       <c r="K262" s="7">
         <v>2690</v>
       </c>
-      <c r="L262" s="9">
-        <v>2157.5</v>
+      <c r="L262" s="7">
+        <v>617</v>
       </c>
     </row>
     <row r="263" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12323,8 +12723,8 @@
       <c r="K263" s="7">
         <v>3074</v>
       </c>
-      <c r="L263" s="9">
-        <v>2407.5</v>
+      <c r="L263" s="7">
+        <v>625</v>
       </c>
     </row>
     <row r="264" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12362,7 +12762,7 @@
         <v>2862</v>
       </c>
       <c r="L264" s="7">
-        <v>2435</v>
+        <v>599</v>
       </c>
     </row>
     <row r="265" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12399,8 +12799,8 @@
       <c r="K265" s="7">
         <v>2874</v>
       </c>
-      <c r="L265" s="9">
-        <v>2372.5</v>
+      <c r="L265" s="7">
+        <v>586</v>
       </c>
     </row>
     <row r="266" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12437,8 +12837,8 @@
       <c r="K266" s="7">
         <v>2628</v>
       </c>
-      <c r="L266" s="9">
-        <v>2247.5</v>
+      <c r="L266" s="7">
+        <v>567</v>
       </c>
     </row>
     <row r="267" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12476,7 +12876,7 @@
         <v>2630</v>
       </c>
       <c r="L267" s="7">
-        <v>2140</v>
+        <v>532</v>
       </c>
     </row>
     <row r="268" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12514,7 +12914,7 @@
         <v>2734</v>
       </c>
       <c r="L268" s="7">
-        <v>2235</v>
+        <v>578</v>
       </c>
     </row>
     <row r="269" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12551,8 +12951,8 @@
       <c r="K269" s="7">
         <v>2444</v>
       </c>
-      <c r="L269" s="9">
-        <v>1987.5</v>
+      <c r="L269" s="7">
+        <v>481</v>
       </c>
     </row>
     <row r="270" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12590,7 +12990,7 @@
         <v>2074</v>
       </c>
       <c r="L270" s="7">
-        <v>1755</v>
+        <v>439</v>
       </c>
     </row>
     <row r="271" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12628,7 +13028,7 @@
         <v>2198</v>
       </c>
       <c r="L271" s="7">
-        <v>1855</v>
+        <v>464</v>
       </c>
     </row>
     <row r="272" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12665,8 +13065,8 @@
       <c r="K272" s="7">
         <v>2030</v>
       </c>
-      <c r="L272" s="9">
-        <v>2012.5</v>
+      <c r="L272" s="7">
+        <v>461</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12704,7 +13104,7 @@
         <v>1978</v>
       </c>
       <c r="L273" s="7">
-        <v>1985</v>
+        <v>469</v>
       </c>
     </row>
     <row r="274" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12741,8 +13141,8 @@
       <c r="K274" s="7">
         <v>2198</v>
       </c>
-      <c r="L274" s="9">
-        <v>2062.5</v>
+      <c r="L274" s="7">
+        <v>526</v>
       </c>
     </row>
     <row r="275" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12780,7 +13180,7 @@
         <v>2410</v>
       </c>
       <c r="L275" s="7">
-        <v>2095</v>
+        <v>581</v>
       </c>
     </row>
     <row r="276" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12817,8 +13217,8 @@
       <c r="K276" s="7">
         <v>2326</v>
       </c>
-      <c r="L276" s="9">
-        <v>2062.5</v>
+      <c r="L276" s="7">
+        <v>597</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12856,7 +13256,7 @@
         <v>2112</v>
       </c>
       <c r="L277" s="7">
-        <v>1845</v>
+        <v>558</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12894,7 +13294,7 @@
         <v>1770</v>
       </c>
       <c r="L278" s="7">
-        <v>1775</v>
+        <v>502</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12932,7 +13332,7 @@
         <v>1782</v>
       </c>
       <c r="L279" s="7">
-        <v>1775</v>
+        <v>526</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12970,7 +13370,7 @@
         <v>1688</v>
       </c>
       <c r="L280" s="7">
-        <v>1650</v>
+        <v>528</v>
       </c>
     </row>
     <row r="281" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13007,8 +13407,8 @@
       <c r="K281" s="7">
         <v>1616</v>
       </c>
-      <c r="L281" s="9">
-        <v>1572.5</v>
+      <c r="L281" s="7">
+        <v>502</v>
       </c>
     </row>
     <row r="282" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13046,7 +13446,7 @@
         <v>1970</v>
       </c>
       <c r="L282" s="7">
-        <v>1600</v>
+        <v>498</v>
       </c>
     </row>
     <row r="283" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13083,8 +13483,8 @@
       <c r="K283" s="7">
         <v>2102</v>
       </c>
-      <c r="L283" s="9">
-        <v>1717.5</v>
+      <c r="L283" s="7">
+        <v>517</v>
       </c>
     </row>
     <row r="284" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13122,7 +13522,7 @@
         <v>2258</v>
       </c>
       <c r="L284" s="7">
-        <v>1690</v>
+        <v>543</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13160,7 +13560,7 @@
         <v>2416</v>
       </c>
       <c r="L285" s="7">
-        <v>1870</v>
+        <v>614</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13198,7 +13598,7 @@
         <v>2846</v>
       </c>
       <c r="L286" s="7">
-        <v>2005</v>
+        <v>671</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13235,8 +13635,8 @@
       <c r="K287" s="7">
         <v>2922</v>
       </c>
-      <c r="L287" s="9">
-        <v>2107.5</v>
+      <c r="L287" s="7">
+        <v>677</v>
       </c>
     </row>
     <row r="288" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13274,7 +13674,7 @@
         <v>2686</v>
       </c>
       <c r="L288" s="7">
-        <v>2030</v>
+        <v>703</v>
       </c>
     </row>
     <row r="289" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13311,8 +13711,8 @@
       <c r="K289" s="7">
         <v>2714</v>
       </c>
-      <c r="L289" s="9">
-        <v>2057.5</v>
+      <c r="L289" s="7">
+        <v>697</v>
       </c>
     </row>
     <row r="290" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13350,7 +13750,7 @@
         <v>2608</v>
       </c>
       <c r="L290" s="7">
-        <v>2065</v>
+        <v>714</v>
       </c>
     </row>
     <row r="291" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13387,8 +13787,8 @@
       <c r="K291" s="7">
         <v>2212</v>
       </c>
-      <c r="L291" s="9">
-        <v>1907.5</v>
+      <c r="L291" s="7">
+        <v>663</v>
       </c>
     </row>
     <row r="292" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13425,8 +13825,8 @@
       <c r="K292" s="7">
         <v>2560</v>
       </c>
-      <c r="L292" s="9">
-        <v>2042.5</v>
+      <c r="L292" s="7">
+        <v>682</v>
       </c>
     </row>
     <row r="293" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13463,8 +13863,8 @@
       <c r="K293" s="7">
         <v>2652</v>
       </c>
-      <c r="L293" s="9">
-        <v>2047.5</v>
+      <c r="L293" s="7">
+        <v>716</v>
       </c>
     </row>
     <row r="294" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13502,7 +13902,7 @@
         <v>2772</v>
       </c>
       <c r="L294" s="7">
-        <v>2125</v>
+        <v>772</v>
       </c>
     </row>
     <row r="295" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13539,8 +13939,8 @@
       <c r="K295" s="7">
         <v>2716</v>
       </c>
-      <c r="L295" s="9">
-        <v>2052.5</v>
+      <c r="L295" s="7">
+        <v>767</v>
       </c>
     </row>
     <row r="296" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13578,7 +13978,7 @@
         <v>2726</v>
       </c>
       <c r="L296" s="7">
-        <v>2300</v>
+        <v>743</v>
       </c>
     </row>
     <row r="297" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13616,7 +14016,7 @@
         <v>2754</v>
       </c>
       <c r="L297" s="7">
-        <v>2393</v>
+        <v>756</v>
       </c>
     </row>
     <row r="298" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13654,7 +14054,7 @@
         <v>2690</v>
       </c>
       <c r="L298" s="7">
-        <v>2281</v>
+        <v>723</v>
       </c>
     </row>
     <row r="299" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13692,7 +14092,7 @@
         <v>2660</v>
       </c>
       <c r="L299" s="7">
-        <v>2077</v>
+        <v>713</v>
       </c>
     </row>
     <row r="300" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13730,7 +14130,7 @@
         <v>2592</v>
       </c>
       <c r="L300" s="7">
-        <v>2119</v>
+        <v>693</v>
       </c>
     </row>
     <row r="301" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13768,7 +14168,7 @@
         <v>3082</v>
       </c>
       <c r="L301" s="7">
-        <v>2255</v>
+        <v>682</v>
       </c>
     </row>
     <row r="302" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13806,7 +14206,7 @@
         <v>3078</v>
       </c>
       <c r="L302" s="7">
-        <v>2113</v>
+        <v>694</v>
       </c>
     </row>
     <row r="303" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13844,7 +14244,7 @@
         <v>3290</v>
       </c>
       <c r="L303" s="7">
-        <v>2201</v>
+        <v>741</v>
       </c>
     </row>
     <row r="304" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13881,8 +14281,8 @@
       <c r="K304" s="7">
         <v>3461</v>
       </c>
-      <c r="L304" s="7">
-        <v>2127</v>
+      <c r="L304" s="9">
+        <v>731.3</v>
       </c>
     </row>
     <row r="305" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13920,7 +14320,7 @@
         <v>3157</v>
       </c>
       <c r="L305" s="7">
-        <v>2282</v>
+        <v>751</v>
       </c>
     </row>
     <row r="306" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13957,8 +14357,8 @@
       <c r="K306" s="7">
         <v>3088</v>
       </c>
-      <c r="L306" s="7">
-        <v>2328</v>
+      <c r="L306" s="9">
+        <v>750.8</v>
       </c>
     </row>
     <row r="307" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13996,7 +14396,7 @@
         <v>3028</v>
       </c>
       <c r="L307" s="7">
-        <v>2160</v>
+        <v>708</v>
       </c>
     </row>
     <row r="308" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14033,8 +14433,8 @@
       <c r="K308" s="7">
         <v>3634</v>
       </c>
-      <c r="L308" s="7">
-        <v>2025</v>
+      <c r="L308" s="9">
+        <v>748.3</v>
       </c>
     </row>
     <row r="309" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14071,8 +14471,8 @@
       <c r="K309" s="7">
         <v>3620</v>
       </c>
-      <c r="L309" s="7">
-        <v>1998</v>
+      <c r="L309" s="9">
+        <v>724.7</v>
       </c>
     </row>
     <row r="310" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14109,8 +14509,8 @@
       <c r="K310" s="7">
         <v>3396</v>
       </c>
-      <c r="L310" s="7">
-        <v>1974</v>
+      <c r="L310" s="9">
+        <v>653.5</v>
       </c>
     </row>
     <row r="311" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14148,7 +14548,7 @@
         <v>3777</v>
       </c>
       <c r="L311" s="7">
-        <v>2103</v>
+        <v>735</v>
       </c>
     </row>
     <row r="312" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14186,7 +14586,7 @@
         <v>3517</v>
       </c>
       <c r="L312" s="7">
-        <v>2092</v>
+        <v>696</v>
       </c>
     </row>
     <row r="313" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14223,8 +14623,8 @@
       <c r="K313" s="7">
         <v>3535</v>
       </c>
-      <c r="L313" s="7">
-        <v>2324</v>
+      <c r="L313" s="9">
+        <v>743.8</v>
       </c>
     </row>
     <row r="314" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14262,7 +14662,7 @@
         <v>3845</v>
       </c>
       <c r="L314" s="7">
-        <v>2457</v>
+        <v>728</v>
       </c>
     </row>
     <row r="315" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14299,8 +14699,8 @@
       <c r="K315" s="7">
         <v>3727</v>
       </c>
-      <c r="L315" s="7">
-        <v>2403</v>
+      <c r="L315" s="9">
+        <v>702.3</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14338,7 +14738,7 @@
         <v>3339</v>
       </c>
       <c r="L316" s="7">
-        <v>2281</v>
+        <v>690</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14375,8 +14775,8 @@
       <c r="K317" s="7">
         <v>3082</v>
       </c>
-      <c r="L317" s="7">
-        <v>2078</v>
+      <c r="L317" s="9">
+        <v>665.2</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14413,8 +14813,8 @@
       <c r="K318" s="7">
         <v>2704</v>
       </c>
-      <c r="L318" s="7">
-        <v>1826</v>
+      <c r="L318" s="9">
+        <v>583.79999999999995</v>
       </c>
     </row>
     <row r="319" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14451,8 +14851,8 @@
       <c r="K319" s="7">
         <v>3021</v>
       </c>
-      <c r="L319" s="7">
-        <v>1989</v>
+      <c r="L319" s="9">
+        <v>702.4</v>
       </c>
     </row>
     <row r="320" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14490,7 +14890,7 @@
         <v>2776</v>
       </c>
       <c r="L320" s="7">
-        <v>2038</v>
+        <v>682</v>
       </c>
     </row>
     <row r="321" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14527,8 +14927,8 @@
       <c r="K321" s="7">
         <v>2959</v>
       </c>
-      <c r="L321" s="7">
-        <v>1938</v>
+      <c r="L321" s="9">
+        <v>625.1</v>
       </c>
     </row>
     <row r="322" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14565,8 +14965,8 @@
       <c r="K322" s="7">
         <v>2514</v>
       </c>
-      <c r="L322" s="7">
-        <v>1785</v>
+      <c r="L322" s="9">
+        <v>570.6</v>
       </c>
     </row>
     <row r="323" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14603,8 +15003,8 @@
       <c r="K323" s="7">
         <v>2425</v>
       </c>
-      <c r="L323" s="7">
-        <v>1712</v>
+      <c r="L323" s="9">
+        <v>565.4</v>
       </c>
     </row>
     <row r="324" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14642,7 +15042,7 @@
         <v>2235</v>
       </c>
       <c r="L324" s="7">
-        <v>2009</v>
+        <v>570</v>
       </c>
     </row>
     <row r="325" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14679,8 +15079,8 @@
       <c r="K325" s="7">
         <v>2504</v>
       </c>
-      <c r="L325" s="7">
-        <v>2356</v>
+      <c r="L325" s="9">
+        <v>586.1</v>
       </c>
     </row>
     <row r="326" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14717,8 +15117,8 @@
       <c r="K326" s="7">
         <v>2286</v>
       </c>
-      <c r="L326" s="7">
-        <v>2218</v>
+      <c r="L326" s="9">
+        <v>532.9</v>
       </c>
     </row>
     <row r="327" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14755,8 +15155,8 @@
       <c r="K327" s="7">
         <v>2057</v>
       </c>
-      <c r="L327" s="7">
-        <v>2212</v>
+      <c r="L327" s="9">
+        <v>459.5</v>
       </c>
     </row>
     <row r="328" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14793,8 +15193,8 @@
       <c r="K328" s="7">
         <v>2487</v>
       </c>
-      <c r="L328" s="7">
-        <v>2006</v>
+      <c r="L328" s="9">
+        <v>481.2</v>
       </c>
     </row>
     <row r="329" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14831,8 +15231,8 @@
       <c r="K329" s="7">
         <v>2624</v>
       </c>
-      <c r="L329" s="7">
-        <v>1887</v>
+      <c r="L329" s="9">
+        <v>515.70000000000005</v>
       </c>
     </row>
     <row r="330" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14869,8 +15269,8 @@
       <c r="K330" s="7">
         <v>2773</v>
       </c>
-      <c r="L330" s="7">
-        <v>2080</v>
+      <c r="L330" s="9">
+        <v>515.5</v>
       </c>
     </row>
     <row r="331" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14907,8 +15307,8 @@
       <c r="K331" s="7">
         <v>2719</v>
       </c>
-      <c r="L331" s="7">
-        <v>2421</v>
+      <c r="L331" s="9">
+        <v>552.70000000000005</v>
       </c>
     </row>
     <row r="332" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14945,8 +15345,8 @@
       <c r="K332" s="7">
         <v>3056</v>
       </c>
-      <c r="L332" s="7">
-        <v>2588</v>
+      <c r="L332" s="9">
+        <v>626.29999999999995</v>
       </c>
     </row>
     <row r="333" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14983,8 +15383,8 @@
       <c r="K333" s="7">
         <v>3014</v>
       </c>
-      <c r="L333" s="7">
-        <v>3105</v>
+      <c r="L333" s="9">
+        <v>662.8</v>
       </c>
     </row>
     <row r="334" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15021,8 +15421,8 @@
       <c r="K334" s="7">
         <v>3064</v>
       </c>
-      <c r="L334" s="7">
-        <v>3495</v>
+      <c r="L334" s="9">
+        <v>687.6</v>
       </c>
     </row>
     <row r="335" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15059,8 +15459,8 @@
       <c r="K335" s="7">
         <v>3122</v>
       </c>
-      <c r="L335" s="7">
-        <v>3620</v>
+      <c r="L335" s="9">
+        <v>726.8</v>
       </c>
     </row>
     <row r="336" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15097,8 +15497,8 @@
       <c r="K336" s="7">
         <v>3167</v>
       </c>
-      <c r="L336" s="7">
-        <v>3870</v>
+      <c r="L336" s="9">
+        <v>685.5</v>
       </c>
     </row>
     <row r="337" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15135,8 +15535,8 @@
       <c r="K337" s="7">
         <v>3023</v>
       </c>
-      <c r="L337" s="7">
-        <v>3565</v>
+      <c r="L337" s="9">
+        <v>686.4</v>
       </c>
     </row>
     <row r="338" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15174,7 +15574,7 @@
         <v>2692</v>
       </c>
       <c r="L338" s="7">
-        <v>3100</v>
+        <v>684</v>
       </c>
     </row>
     <row r="339" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15211,8 +15611,8 @@
       <c r="K339" s="7">
         <v>3001</v>
       </c>
-      <c r="L339" s="7">
-        <v>3190</v>
+      <c r="L339" s="9">
+        <v>725.8</v>
       </c>
     </row>
     <row r="340" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15249,8 +15649,8 @@
       <c r="K340" s="7">
         <v>3337</v>
       </c>
-      <c r="L340" s="7">
-        <v>2677</v>
+      <c r="L340" s="9">
+        <v>731.3</v>
       </c>
     </row>
     <row r="341" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15287,8 +15687,8 @@
       <c r="K341" s="7">
         <v>3790</v>
       </c>
-      <c r="L341" s="7">
-        <v>2686</v>
+      <c r="L341" s="9">
+        <v>715.4</v>
       </c>
     </row>
     <row r="342" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15325,8 +15725,8 @@
       <c r="K342" s="7">
         <v>3614</v>
       </c>
-      <c r="L342" s="7">
-        <v>3175</v>
+      <c r="L342" s="9">
+        <v>768.5</v>
       </c>
     </row>
     <row r="343" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15363,8 +15763,8 @@
       <c r="K343" s="7">
         <v>4456</v>
       </c>
-      <c r="L343" s="7">
-        <v>3295</v>
+      <c r="L343" s="9">
+        <v>756.7</v>
       </c>
     </row>
     <row r="344" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15401,8 +15801,8 @@
       <c r="K344" s="7">
         <v>4355</v>
       </c>
-      <c r="L344" s="7">
-        <v>3770</v>
+      <c r="L344" s="9">
+        <v>745.8</v>
       </c>
     </row>
     <row r="345" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15439,8 +15839,8 @@
       <c r="K345" s="7">
         <v>5178</v>
       </c>
-      <c r="L345" s="7">
-        <v>4525</v>
+      <c r="L345" s="9">
+        <v>816.1</v>
       </c>
     </row>
     <row r="346" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15477,8 +15877,8 @@
       <c r="K346" s="7">
         <v>5108</v>
       </c>
-      <c r="L346" s="7">
-        <v>4080</v>
+      <c r="L346" s="9">
+        <v>818.2</v>
       </c>
     </row>
     <row r="347" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15515,8 +15915,8 @@
       <c r="K347" s="7">
         <v>5032</v>
       </c>
-      <c r="L347" s="7">
-        <v>4125</v>
+      <c r="L347" s="9">
+        <v>819.7</v>
       </c>
     </row>
     <row r="348" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15553,8 +15953,8 @@
       <c r="K348" s="7">
         <v>4480</v>
       </c>
-      <c r="L348" s="7">
-        <v>4045</v>
+      <c r="L348" s="9">
+        <v>769.9</v>
       </c>
     </row>
     <row r="349" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15591,8 +15991,8 @@
       <c r="K349" s="7">
         <v>4698</v>
       </c>
-      <c r="L349" s="7">
-        <v>4285</v>
+      <c r="L349" s="9">
+        <v>824.2</v>
       </c>
     </row>
     <row r="350" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15629,8 +16029,8 @@
       <c r="K350" s="7">
         <v>4166</v>
       </c>
-      <c r="L350" s="7">
-        <v>3655</v>
+      <c r="L350" s="9">
+        <v>848.4</v>
       </c>
     </row>
     <row r="351" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15667,8 +16067,8 @@
       <c r="K351" s="7">
         <v>4238</v>
       </c>
-      <c r="L351" s="7">
-        <v>3950</v>
+      <c r="L351" s="9">
+        <v>845.1</v>
       </c>
     </row>
     <row r="352" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15705,8 +16105,8 @@
       <c r="K352" s="7">
         <v>4015</v>
       </c>
-      <c r="L352" s="7">
-        <v>5030</v>
+      <c r="L352" s="9">
+        <v>850.8</v>
       </c>
     </row>
     <row r="353" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15743,8 +16143,8 @@
       <c r="K353" s="7">
         <v>3590</v>
       </c>
-      <c r="L353" s="7">
-        <v>5610</v>
+      <c r="L353" s="9">
+        <v>911.6</v>
       </c>
     </row>
     <row r="354" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15782,7 +16182,7 @@
         <v>3986</v>
       </c>
       <c r="L354" s="7">
-        <v>6010</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="355" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15819,8 +16219,8 @@
       <c r="K355" s="7">
         <v>3560</v>
       </c>
-      <c r="L355" s="7">
-        <v>5150</v>
+      <c r="L355" s="9">
+        <v>916.3</v>
       </c>
     </row>
     <row r="356" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15857,8 +16257,8 @@
       <c r="K356" s="7">
         <v>3305</v>
       </c>
-      <c r="L356" s="7">
-        <v>4130</v>
+      <c r="L356" s="9">
+        <v>847.5</v>
       </c>
     </row>
     <row r="357" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15895,8 +16295,8 @@
       <c r="K357" s="9">
         <v>2947.5</v>
       </c>
-      <c r="L357" s="7">
-        <v>3610</v>
+      <c r="L357" s="9">
+        <v>772.4</v>
       </c>
     </row>
     <row r="358" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15933,8 +16333,8 @@
       <c r="K358" s="7">
         <v>3136</v>
       </c>
-      <c r="L358" s="7">
-        <v>3835</v>
+      <c r="L358" s="9">
+        <v>846.6</v>
       </c>
     </row>
     <row r="359" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15971,8 +16371,8 @@
       <c r="K359" s="7">
         <v>3264</v>
       </c>
-      <c r="L359" s="7">
-        <v>3950</v>
+      <c r="L359" s="9">
+        <v>794.7</v>
       </c>
     </row>
     <row r="360" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16010,7 +16410,7 @@
         <v>3270</v>
       </c>
       <c r="L360" s="7">
-        <v>3705</v>
+        <v>765</v>
       </c>
     </row>
     <row r="361" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16047,8 +16447,8 @@
       <c r="K361" s="7">
         <v>3479</v>
       </c>
-      <c r="L361" s="7">
-        <v>3605</v>
+      <c r="L361" s="9">
+        <v>795.1</v>
       </c>
     </row>
     <row r="362" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16085,8 +16485,8 @@
       <c r="K362" s="7">
         <v>2862</v>
       </c>
-      <c r="L362" s="7">
-        <v>3075</v>
+      <c r="L362" s="9">
+        <v>683.4</v>
       </c>
     </row>
     <row r="363" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16124,7 +16524,7 @@
         <v>3219</v>
       </c>
       <c r="L363" s="7">
-        <v>3240</v>
+        <v>713</v>
       </c>
     </row>
     <row r="364" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16162,7 +16562,7 @@
         <v>3115</v>
       </c>
       <c r="L364" s="7">
-        <v>3020</v>
+        <v>710</v>
       </c>
     </row>
     <row r="365" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16199,8 +16599,8 @@
       <c r="K365" s="9">
         <v>2991.5</v>
       </c>
-      <c r="L365" s="7">
-        <v>2855</v>
+      <c r="L365" s="9">
+        <v>678.1</v>
       </c>
     </row>
     <row r="366" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16237,8 +16637,8 @@
       <c r="K366" s="7">
         <v>3347</v>
       </c>
-      <c r="L366" s="7">
-        <v>3055</v>
+      <c r="L366" s="9">
+        <v>717.7</v>
       </c>
     </row>
     <row r="367" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16275,8 +16675,8 @@
       <c r="K367" s="7">
         <v>3656</v>
       </c>
-      <c r="L367" s="7">
-        <v>3205</v>
+      <c r="L367" s="9">
+        <v>765.8</v>
       </c>
     </row>
     <row r="368" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16313,8 +16713,8 @@
       <c r="K368" s="7">
         <v>3316</v>
       </c>
-      <c r="L368" s="7">
-        <v>2988</v>
+      <c r="L368" s="9">
+        <v>808.2</v>
       </c>
     </row>
     <row r="369" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16351,8 +16751,8 @@
       <c r="K369" s="7">
         <v>3544</v>
       </c>
-      <c r="L369" s="7">
-        <v>3030</v>
+      <c r="L369" s="9">
+        <v>810.6</v>
       </c>
     </row>
     <row r="370" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16389,8 +16789,8 @@
       <c r="K370" s="7">
         <v>3164</v>
       </c>
-      <c r="L370" s="7">
-        <v>2765</v>
+      <c r="L370" s="9">
+        <v>795.2</v>
       </c>
     </row>
     <row r="371" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16427,8 +16827,8 @@
       <c r="K371" s="9">
         <v>2685.5</v>
       </c>
-      <c r="L371" s="7">
-        <v>2658</v>
+      <c r="L371" s="9">
+        <v>716.8</v>
       </c>
     </row>
     <row r="372" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16466,7 +16866,7 @@
         <v>2218</v>
       </c>
       <c r="L372" s="7">
-        <v>2478</v>
+        <v>539</v>
       </c>
     </row>
     <row r="373" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16504,7 +16904,7 @@
         <v>2718.5</v>
       </c>
       <c r="L373" s="7">
-        <v>2470</v>
+        <v>524</v>
       </c>
     </row>
     <row r="374" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16541,8 +16941,8 @@
       <c r="K374" s="7">
         <v>3001</v>
       </c>
-      <c r="L374" s="7">
-        <v>2390</v>
+      <c r="L374" s="9">
+        <v>523.29999999999995</v>
       </c>
     </row>
     <row r="375" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16579,8 +16979,8 @@
       <c r="K375" s="7">
         <v>3009</v>
       </c>
-      <c r="L375" s="7">
-        <v>2287</v>
+      <c r="L375" s="9">
+        <v>487.5</v>
       </c>
     </row>
     <row r="376" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16618,7 +17018,7 @@
         <v>3134</v>
       </c>
       <c r="L376" s="7">
-        <v>2180</v>
+        <v>485</v>
       </c>
     </row>
     <row r="377" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16655,8 +17055,8 @@
       <c r="K377" s="7">
         <v>3237</v>
       </c>
-      <c r="L377" s="7">
-        <v>2336</v>
+      <c r="L377" s="9">
+        <v>639.6</v>
       </c>
     </row>
     <row r="378" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16693,8 +17093,8 @@
       <c r="K378" s="7">
         <v>3245</v>
       </c>
-      <c r="L378" s="7">
-        <v>2242</v>
+      <c r="L378" s="9">
+        <v>594.5</v>
       </c>
     </row>
     <row r="379" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16731,8 +17131,8 @@
       <c r="K379" s="7">
         <v>3223</v>
       </c>
-      <c r="L379" s="7">
-        <v>2105</v>
+      <c r="L379" s="9">
+        <v>543.20000000000005</v>
       </c>
     </row>
     <row r="380" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16769,8 +17169,8 @@
       <c r="K380" s="7">
         <v>3887</v>
       </c>
-      <c r="L380" s="7">
-        <v>2174</v>
+      <c r="L380" s="9">
+        <v>608.5</v>
       </c>
     </row>
     <row r="381" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16807,8 +17207,8 @@
       <c r="K381" s="7">
         <v>4579</v>
       </c>
-      <c r="L381" s="7">
-        <v>2270</v>
+      <c r="L381" s="9">
+        <v>686.1</v>
       </c>
     </row>
     <row r="382" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16845,8 +17245,8 @@
       <c r="K382" s="7">
         <v>4544</v>
       </c>
-      <c r="L382" s="7">
-        <v>2454</v>
+      <c r="L382" s="9">
+        <v>694.3</v>
       </c>
     </row>
     <row r="383" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16883,8 +17283,8 @@
       <c r="K383" s="7">
         <v>5142</v>
       </c>
-      <c r="L383" s="7">
-        <v>2784</v>
+      <c r="L383" s="9">
+        <v>791.7</v>
       </c>
     </row>
     <row r="384" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16921,8 +17321,8 @@
       <c r="K384" s="7">
         <v>4779</v>
       </c>
-      <c r="L384" s="7">
-        <v>2854</v>
+      <c r="L384" s="9">
+        <v>920.8</v>
       </c>
     </row>
     <row r="385" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16959,8 +17359,8 @@
       <c r="K385" s="7">
         <v>4639</v>
       </c>
-      <c r="L385" s="7">
-        <v>2617</v>
+      <c r="L385" s="9">
+        <v>908.6</v>
       </c>
     </row>
     <row r="386" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16997,8 +17397,8 @@
       <c r="K386" s="7">
         <v>4908</v>
       </c>
-      <c r="L386" s="7">
-        <v>2585</v>
+      <c r="L386" s="9">
+        <v>967.3</v>
       </c>
     </row>
     <row r="387" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17035,8 +17435,8 @@
       <c r="K387" s="7">
         <v>4325</v>
       </c>
-      <c r="L387" s="7">
-        <v>2683</v>
+      <c r="L387" s="9">
+        <v>966.1</v>
       </c>
     </row>
     <row r="388" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17073,8 +17473,8 @@
       <c r="K388" s="7">
         <v>4418</v>
       </c>
-      <c r="L388" s="7">
-        <v>2574</v>
+      <c r="L388" s="9">
+        <v>925.9</v>
       </c>
     </row>
     <row r="389" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17111,8 +17511,8 @@
       <c r="K389" s="7">
         <v>4224</v>
       </c>
-      <c r="L389" s="7">
-        <v>2638</v>
+      <c r="L389" s="9">
+        <v>875.6</v>
       </c>
     </row>
     <row r="390" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17149,8 +17549,8 @@
       <c r="K390" s="7">
         <v>4065</v>
       </c>
-      <c r="L390" s="7">
-        <v>2946</v>
+      <c r="L390" s="9">
+        <v>933.2</v>
       </c>
     </row>
     <row r="391" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17187,8 +17587,8 @@
       <c r="K391" s="7">
         <v>4423</v>
       </c>
-      <c r="L391" s="7">
-        <v>3115</v>
+      <c r="L391" s="9">
+        <v>961.2</v>
       </c>
     </row>
     <row r="392" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17225,8 +17625,8 @@
       <c r="K392" s="7">
         <v>4233</v>
       </c>
-      <c r="L392" s="7">
-        <v>2931</v>
+      <c r="L392" s="9">
+        <v>1017.5</v>
       </c>
     </row>
     <row r="393" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17263,8 +17663,8 @@
       <c r="K393" s="7">
         <v>4350</v>
       </c>
-      <c r="L393" s="7">
-        <v>2937</v>
+      <c r="L393" s="9">
+        <v>1119.5</v>
       </c>
     </row>
     <row r="394" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17301,8 +17701,8 @@
       <c r="K394" s="7">
         <v>5248</v>
       </c>
-      <c r="L394" s="7">
-        <v>2930</v>
+      <c r="L394" s="9">
+        <v>1179.5</v>
       </c>
     </row>
     <row r="395" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17339,8 +17739,8 @@
       <c r="K395" s="7">
         <v>5746</v>
       </c>
-      <c r="L395" s="7">
-        <v>3080</v>
+      <c r="L395" s="9">
+        <v>1203.5</v>
       </c>
     </row>
     <row r="396" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17378,7 +17778,7 @@
         <v>6163</v>
       </c>
       <c r="L396" s="7">
-        <v>3375</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="397" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17415,8 +17815,8 @@
       <c r="K397" s="7">
         <v>5671</v>
       </c>
-      <c r="L397" s="7">
-        <v>3405</v>
+      <c r="L397" s="9">
+        <v>1422.5</v>
       </c>
     </row>
     <row r="398" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17453,8 +17853,8 @@
       <c r="K398" s="7">
         <v>5416</v>
       </c>
-      <c r="L398" s="7">
-        <v>3500</v>
+      <c r="L398" s="9">
+        <v>1353.5</v>
       </c>
     </row>
     <row r="399" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17491,8 +17891,8 @@
       <c r="K399" s="7">
         <v>4219</v>
       </c>
-      <c r="L399" s="7">
-        <v>3160</v>
+      <c r="L399" s="9">
+        <v>1216.5</v>
       </c>
     </row>
   </sheetData>

--- a/pm/stock.xlsx
+++ b/pm/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clinton/Dropbox/application_data/GitHub/ec_data/pm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{147BBD10-F802-F04C-A3C9-6CF677CE3AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74594F90-D657-D04B-B1C0-E6B5F3E2E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
     <t>T7203</t>
   </si>
   <si>
-    <t>T9613</t>
+    <t>T6752</t>
   </si>
   <si>
     <t>T9001</t>
@@ -434,7 +434,7 @@
     <t>TOYOTA MOTOR</t>
   </si>
   <si>
-    <t>NTT DATA</t>
+    <t>PANASONIC HOLDINGS</t>
   </si>
   <si>
     <t>MARUBENI</t>
@@ -2880,7 +2880,7 @@
   <dimension ref="A1:L399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C383" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
@@ -3223,7 +3223,9 @@
       <c r="G10" s="8">
         <v>411.57</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="7">
+        <v>2290</v>
+      </c>
       <c r="I10" s="8">
         <v>7524.27</v>
       </c>
@@ -3259,7 +3261,9 @@
       <c r="G11" s="8">
         <v>386.78</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="7">
+        <v>2170</v>
+      </c>
       <c r="I11" s="8">
         <v>6796.12</v>
       </c>
@@ -3295,7 +3299,9 @@
       <c r="G12" s="8">
         <v>366.94</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="7">
+        <v>2150</v>
+      </c>
       <c r="I12" s="8">
         <v>4708.74</v>
       </c>
@@ -3331,7 +3337,9 @@
       <c r="G13" s="8">
         <v>385.12</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="7">
+        <v>2140</v>
+      </c>
       <c r="I13" s="8">
         <v>5097.09</v>
       </c>
@@ -3367,7 +3375,9 @@
       <c r="G14" s="8">
         <v>416.53</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="7">
+        <v>2170</v>
+      </c>
       <c r="I14" s="8">
         <v>5631.07</v>
       </c>
@@ -3403,7 +3413,9 @@
       <c r="G15" s="8">
         <v>427.27</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="7">
+        <v>2140</v>
+      </c>
       <c r="I15" s="8">
         <v>4951.46</v>
       </c>
@@ -3439,7 +3451,9 @@
       <c r="G16" s="7">
         <v>400</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="7">
+        <v>2020</v>
+      </c>
       <c r="I16" s="8">
         <v>4563.1099999999997</v>
       </c>
@@ -3475,7 +3489,9 @@
       <c r="G17" s="8">
         <v>369.09</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="7">
+        <v>1860</v>
+      </c>
       <c r="I17" s="8">
         <v>3878.64</v>
       </c>
@@ -3511,7 +3527,9 @@
       <c r="G18" s="8">
         <v>327.27</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="7">
+        <v>1650</v>
+      </c>
       <c r="I18" s="8">
         <v>3262.14</v>
       </c>
@@ -3547,7 +3565,9 @@
       <c r="G19" s="8">
         <v>336.36</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="7">
+        <v>1750</v>
+      </c>
       <c r="I19" s="8">
         <v>3883.49</v>
       </c>
@@ -3583,7 +3603,9 @@
       <c r="G20" s="7">
         <v>320</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="7">
+        <v>1570</v>
+      </c>
       <c r="I20" s="8">
         <v>3334.95</v>
       </c>
@@ -3619,7 +3641,9 @@
       <c r="G21" s="8">
         <v>318.18</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="7">
+        <v>1590</v>
+      </c>
       <c r="I21" s="8">
         <v>3655.34</v>
       </c>
@@ -3655,7 +3679,9 @@
       <c r="G22" s="8">
         <v>314.55</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="7">
+        <v>1660</v>
+      </c>
       <c r="I22" s="8">
         <v>3864.08</v>
       </c>
@@ -3691,7 +3717,9 @@
       <c r="G23" s="8">
         <v>334.55</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="7">
+        <v>1820</v>
+      </c>
       <c r="I23" s="8">
         <v>4436.8900000000003</v>
       </c>
@@ -3727,7 +3755,9 @@
       <c r="G24" s="8">
         <v>336.36</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="7">
+        <v>1760</v>
+      </c>
       <c r="I24" s="8">
         <v>4315.53</v>
       </c>
@@ -3763,7 +3793,9 @@
       <c r="G25" s="8">
         <v>334.55</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="7">
+        <v>1730</v>
+      </c>
       <c r="I25" s="8">
         <v>4199.03</v>
       </c>
@@ -3799,7 +3831,9 @@
       <c r="G26" s="8">
         <v>327.27</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="7">
+        <v>1680</v>
+      </c>
       <c r="I26" s="8">
         <v>4296.12</v>
       </c>
@@ -3835,7 +3869,9 @@
       <c r="G27" s="7">
         <v>330</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="7">
+        <v>1670</v>
+      </c>
       <c r="I27" s="8">
         <v>3834.95</v>
       </c>
@@ -3871,7 +3907,9 @@
       <c r="G28" s="7">
         <v>330</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="7">
+        <v>1720</v>
+      </c>
       <c r="I28" s="8">
         <v>3728.16</v>
       </c>
@@ -3907,7 +3945,9 @@
       <c r="G29" s="7">
         <v>302</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="7">
+        <v>1640</v>
+      </c>
       <c r="I29" s="8">
         <v>3737.86</v>
       </c>
@@ -3943,7 +3983,9 @@
       <c r="G30" s="7">
         <v>318</v>
       </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="7">
+        <v>1570</v>
+      </c>
       <c r="I30" s="9">
         <v>4106.8</v>
       </c>
@@ -3979,7 +4021,9 @@
       <c r="G31" s="7">
         <v>320</v>
       </c>
-      <c r="H31" s="6"/>
+      <c r="H31" s="7">
+        <v>1560</v>
+      </c>
       <c r="I31" s="8">
         <v>4485.4399999999996</v>
       </c>
@@ -4015,7 +4059,9 @@
       <c r="G32" s="7">
         <v>294</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="H32" s="7">
+        <v>1410</v>
+      </c>
       <c r="I32" s="9">
         <v>4169.8999999999996</v>
       </c>
@@ -4051,7 +4097,9 @@
       <c r="G33" s="7">
         <v>300</v>
       </c>
-      <c r="H33" s="6"/>
+      <c r="H33" s="7">
+        <v>1450</v>
+      </c>
       <c r="I33" s="8">
         <v>4097.09</v>
       </c>
@@ -4087,7 +4135,9 @@
       <c r="G34" s="7">
         <v>292</v>
       </c>
-      <c r="H34" s="6"/>
+      <c r="H34" s="7">
+        <v>1470</v>
+      </c>
       <c r="I34" s="8">
         <v>3810.68</v>
       </c>
@@ -4123,7 +4173,9 @@
       <c r="G35" s="7">
         <v>292</v>
       </c>
-      <c r="H35" s="6"/>
+      <c r="H35" s="7">
+        <v>1370</v>
+      </c>
       <c r="I35" s="8">
         <v>3834.95</v>
       </c>
@@ -4159,7 +4211,9 @@
       <c r="G36" s="7">
         <v>274</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="7">
+        <v>1270</v>
+      </c>
       <c r="I36" s="8">
         <v>3436.89</v>
       </c>
@@ -4195,7 +4249,9 @@
       <c r="G37" s="7">
         <v>298</v>
       </c>
-      <c r="H37" s="6"/>
+      <c r="H37" s="7">
+        <v>1440</v>
+      </c>
       <c r="I37" s="8">
         <v>2912.62</v>
       </c>
@@ -4231,7 +4287,9 @@
       <c r="G38" s="7">
         <v>302</v>
       </c>
-      <c r="H38" s="6"/>
+      <c r="H38" s="7">
+        <v>1380</v>
+      </c>
       <c r="I38" s="8">
         <v>3087.38</v>
       </c>
@@ -4267,7 +4325,9 @@
       <c r="G39" s="7">
         <v>288</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="7">
+        <v>1310</v>
+      </c>
       <c r="I39" s="8">
         <v>2713.59</v>
       </c>
@@ -4303,7 +4363,9 @@
       <c r="G40" s="7">
         <v>284</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="7">
+        <v>1240</v>
+      </c>
       <c r="I40" s="8">
         <v>2597.09</v>
       </c>
@@ -4339,7 +4401,9 @@
       <c r="G41" s="7">
         <v>290</v>
       </c>
-      <c r="H41" s="6"/>
+      <c r="H41" s="7">
+        <v>1230</v>
+      </c>
       <c r="I41" s="8">
         <v>2907.77</v>
       </c>
@@ -4375,7 +4439,9 @@
       <c r="G42" s="7">
         <v>284</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="7">
+        <v>1070</v>
+      </c>
       <c r="I42" s="8">
         <v>2873.79</v>
       </c>
@@ -4411,7 +4477,9 @@
       <c r="G43" s="7">
         <v>282</v>
       </c>
-      <c r="H43" s="6"/>
+      <c r="H43" s="7">
+        <v>1110</v>
+      </c>
       <c r="I43" s="8">
         <v>2771.84</v>
       </c>
@@ -4447,7 +4515,9 @@
       <c r="G44" s="7">
         <v>284</v>
       </c>
-      <c r="H44" s="6"/>
+      <c r="H44" s="7">
+        <v>1150</v>
+      </c>
       <c r="I44" s="8">
         <v>2820.39</v>
       </c>
@@ -4483,7 +4553,9 @@
       <c r="G45" s="7">
         <v>296</v>
       </c>
-      <c r="H45" s="6"/>
+      <c r="H45" s="7">
+        <v>1160</v>
+      </c>
       <c r="I45" s="8">
         <v>2786.41</v>
       </c>
@@ -4519,7 +4591,9 @@
       <c r="G46" s="7">
         <v>282</v>
       </c>
-      <c r="H46" s="6"/>
+      <c r="H46" s="7">
+        <v>1150</v>
+      </c>
       <c r="I46" s="8">
         <v>2742.72</v>
       </c>
@@ -4555,7 +4629,9 @@
       <c r="G47" s="7">
         <v>270</v>
       </c>
-      <c r="H47" s="6"/>
+      <c r="H47" s="7">
+        <v>1050</v>
+      </c>
       <c r="I47" s="8">
         <v>2854.37</v>
       </c>
@@ -4591,7 +4667,9 @@
       <c r="G48" s="7">
         <v>302</v>
       </c>
-      <c r="H48" s="6"/>
+      <c r="H48" s="7">
+        <v>1260</v>
+      </c>
       <c r="I48" s="9">
         <v>3446.6</v>
       </c>
@@ -4627,7 +4705,9 @@
       <c r="G49" s="7">
         <v>350</v>
       </c>
-      <c r="H49" s="6"/>
+      <c r="H49" s="7">
+        <v>1400</v>
+      </c>
       <c r="I49" s="9">
         <v>3723.3</v>
       </c>
@@ -4663,7 +4743,9 @@
       <c r="G50" s="7">
         <v>328</v>
       </c>
-      <c r="H50" s="6"/>
+      <c r="H50" s="7">
+        <v>1280</v>
+      </c>
       <c r="I50" s="8">
         <v>4189.32</v>
       </c>
@@ -4699,7 +4781,9 @@
       <c r="G51" s="7">
         <v>304</v>
       </c>
-      <c r="H51" s="6"/>
+      <c r="H51" s="7">
+        <v>1260</v>
+      </c>
       <c r="I51" s="8">
         <v>3936.89</v>
       </c>
@@ -4735,7 +4819,9 @@
       <c r="G52" s="7">
         <v>328</v>
       </c>
-      <c r="H52" s="6"/>
+      <c r="H52" s="7">
+        <v>1330</v>
+      </c>
       <c r="I52" s="8">
         <v>4228.1499999999996</v>
       </c>
@@ -4771,7 +4857,9 @@
       <c r="G53" s="7">
         <v>338</v>
       </c>
-      <c r="H53" s="6"/>
+      <c r="H53" s="7">
+        <v>1420</v>
+      </c>
       <c r="I53" s="8">
         <v>4150.49</v>
       </c>
@@ -4807,7 +4895,9 @@
       <c r="G54" s="7">
         <v>346</v>
       </c>
-      <c r="H54" s="6"/>
+      <c r="H54" s="7">
+        <v>1430</v>
+      </c>
       <c r="I54" s="8">
         <v>3854.37</v>
       </c>
@@ -4843,7 +4933,9 @@
       <c r="G55" s="7">
         <v>376</v>
       </c>
-      <c r="H55" s="6"/>
+      <c r="H55" s="7">
+        <v>1470</v>
+      </c>
       <c r="I55" s="8">
         <v>3626.21</v>
       </c>
@@ -4879,7 +4971,9 @@
       <c r="G56" s="7">
         <v>328</v>
       </c>
-      <c r="H56" s="6"/>
+      <c r="H56" s="7">
+        <v>1360</v>
+      </c>
       <c r="I56" s="8">
         <v>2961.16</v>
       </c>
@@ -4915,7 +5009,9 @@
       <c r="G57" s="7">
         <v>356</v>
       </c>
-      <c r="H57" s="6"/>
+      <c r="H57" s="7">
+        <v>1490</v>
+      </c>
       <c r="I57" s="8">
         <v>3058.25</v>
       </c>
@@ -4951,7 +5047,9 @@
       <c r="G58" s="7">
         <v>392</v>
       </c>
-      <c r="H58" s="6"/>
+      <c r="H58" s="7">
+        <v>1730</v>
+      </c>
       <c r="I58" s="8">
         <v>3490.29</v>
       </c>
@@ -4987,7 +5085,9 @@
       <c r="G59" s="7">
         <v>404</v>
       </c>
-      <c r="H59" s="6"/>
+      <c r="H59" s="7">
+        <v>1780</v>
+      </c>
       <c r="I59" s="8">
         <v>3388.35</v>
       </c>
@@ -5023,7 +5123,9 @@
       <c r="G60" s="7">
         <v>394</v>
       </c>
-      <c r="H60" s="6"/>
+      <c r="H60" s="7">
+        <v>1700</v>
+      </c>
       <c r="I60" s="7">
         <v>3250</v>
       </c>
@@ -5059,7 +5161,9 @@
       <c r="G61" s="7">
         <v>398</v>
       </c>
-      <c r="H61" s="6"/>
+      <c r="H61" s="7">
+        <v>1670</v>
+      </c>
       <c r="I61" s="7">
         <v>3290</v>
       </c>
@@ -5095,7 +5199,9 @@
       <c r="G62" s="7">
         <v>422</v>
       </c>
-      <c r="H62" s="6"/>
+      <c r="H62" s="7">
+        <v>1830</v>
+      </c>
       <c r="I62" s="7">
         <v>3395</v>
       </c>
@@ -5131,7 +5237,9 @@
       <c r="G63" s="7">
         <v>442</v>
       </c>
-      <c r="H63" s="6"/>
+      <c r="H63" s="7">
+        <v>1810</v>
+      </c>
       <c r="I63" s="7">
         <v>3315</v>
       </c>
@@ -5167,7 +5275,9 @@
       <c r="G64" s="7">
         <v>424</v>
       </c>
-      <c r="H64" s="6"/>
+      <c r="H64" s="7">
+        <v>1640</v>
+      </c>
       <c r="I64" s="7">
         <v>3240</v>
       </c>
@@ -5203,7 +5313,9 @@
       <c r="G65" s="7">
         <v>432</v>
       </c>
-      <c r="H65" s="6"/>
+      <c r="H65" s="7">
+        <v>1760</v>
+      </c>
       <c r="I65" s="7">
         <v>3260</v>
       </c>
@@ -5239,7 +5351,9 @@
       <c r="G66" s="7">
         <v>406</v>
       </c>
-      <c r="H66" s="6"/>
+      <c r="H66" s="7">
+        <v>1580</v>
+      </c>
       <c r="I66" s="7">
         <v>3185</v>
       </c>
@@ -5275,7 +5389,9 @@
       <c r="G67" s="7">
         <v>428</v>
       </c>
-      <c r="H67" s="6"/>
+      <c r="H67" s="7">
+        <v>1610</v>
+      </c>
       <c r="I67" s="7">
         <v>3085</v>
       </c>
@@ -5311,7 +5427,9 @@
       <c r="G68" s="7">
         <v>422</v>
       </c>
-      <c r="H68" s="6"/>
+      <c r="H68" s="7">
+        <v>1530</v>
+      </c>
       <c r="I68" s="7">
         <v>2945</v>
       </c>
@@ -5347,7 +5465,9 @@
       <c r="G69" s="7">
         <v>420</v>
       </c>
-      <c r="H69" s="6"/>
+      <c r="H69" s="7">
+        <v>1640</v>
+      </c>
       <c r="I69" s="7">
         <v>2910</v>
       </c>
@@ -5383,7 +5503,9 @@
       <c r="G70" s="7">
         <v>380</v>
       </c>
-      <c r="H70" s="6"/>
+      <c r="H70" s="7">
+        <v>1380</v>
+      </c>
       <c r="I70" s="7">
         <v>3150</v>
       </c>
@@ -5419,7 +5541,9 @@
       <c r="G71" s="7">
         <v>348</v>
       </c>
-      <c r="H71" s="6"/>
+      <c r="H71" s="7">
+        <v>1400</v>
+      </c>
       <c r="I71" s="7">
         <v>2890</v>
       </c>
@@ -5455,7 +5579,9 @@
       <c r="G72" s="7">
         <v>354</v>
       </c>
-      <c r="H72" s="6"/>
+      <c r="H72" s="7">
+        <v>1400</v>
+      </c>
       <c r="I72" s="7">
         <v>2750</v>
       </c>
@@ -5492,7 +5618,7 @@
         <v>342</v>
       </c>
       <c r="H73" s="7">
-        <v>286</v>
+        <v>1410</v>
       </c>
       <c r="I73" s="7">
         <v>2770</v>
@@ -5530,7 +5656,7 @@
         <v>328</v>
       </c>
       <c r="H74" s="7">
-        <v>260</v>
+        <v>1310</v>
       </c>
       <c r="I74" s="7">
         <v>2650</v>
@@ -5568,7 +5694,7 @@
         <v>336</v>
       </c>
       <c r="H75" s="7">
-        <v>266</v>
+        <v>1320</v>
       </c>
       <c r="I75" s="7">
         <v>2645</v>
@@ -5606,7 +5732,7 @@
         <v>368</v>
       </c>
       <c r="H76" s="7">
-        <v>294</v>
+        <v>1470</v>
       </c>
       <c r="I76" s="7">
         <v>2885</v>
@@ -5644,7 +5770,7 @@
         <v>388</v>
       </c>
       <c r="H77" s="7">
-        <v>428</v>
+        <v>1530</v>
       </c>
       <c r="I77" s="7">
         <v>2960</v>
@@ -5682,7 +5808,7 @@
         <v>378</v>
       </c>
       <c r="H78" s="7">
-        <v>462</v>
+        <v>1520</v>
       </c>
       <c r="I78" s="7">
         <v>3055</v>
@@ -5720,7 +5846,7 @@
         <v>380</v>
       </c>
       <c r="H79" s="7">
-        <v>512</v>
+        <v>1450</v>
       </c>
       <c r="I79" s="7">
         <v>2895</v>
@@ -5758,7 +5884,7 @@
         <v>402</v>
       </c>
       <c r="H80" s="7">
-        <v>608</v>
+        <v>1510</v>
       </c>
       <c r="I80" s="7">
         <v>3015</v>
@@ -5796,7 +5922,7 @@
         <v>438</v>
       </c>
       <c r="H81" s="7">
-        <v>694</v>
+        <v>1680</v>
       </c>
       <c r="I81" s="7">
         <v>3230</v>
@@ -5834,7 +5960,7 @@
         <v>460</v>
       </c>
       <c r="H82" s="7">
-        <v>640</v>
+        <v>1780</v>
       </c>
       <c r="I82" s="7">
         <v>3225</v>
@@ -5872,7 +5998,7 @@
         <v>454</v>
       </c>
       <c r="H83" s="7">
-        <v>620</v>
+        <v>1680</v>
       </c>
       <c r="I83" s="7">
         <v>3335</v>
@@ -5910,7 +6036,7 @@
         <v>472</v>
       </c>
       <c r="H84" s="7">
-        <v>652</v>
+        <v>1740</v>
       </c>
       <c r="I84" s="7">
         <v>3475</v>
@@ -5948,7 +6074,7 @@
         <v>478</v>
       </c>
       <c r="H85" s="7">
-        <v>732</v>
+        <v>1850</v>
       </c>
       <c r="I85" s="7">
         <v>3620</v>
@@ -5986,7 +6112,7 @@
         <v>494</v>
       </c>
       <c r="H86" s="7">
-        <v>666</v>
+        <v>1860</v>
       </c>
       <c r="I86" s="7">
         <v>3505</v>
@@ -6024,7 +6150,7 @@
         <v>548</v>
       </c>
       <c r="H87" s="7">
-        <v>656</v>
+        <v>2040</v>
       </c>
       <c r="I87" s="7">
         <v>3595</v>
@@ -6062,7 +6188,7 @@
         <v>518</v>
       </c>
       <c r="H88" s="7">
-        <v>618</v>
+        <v>1860</v>
       </c>
       <c r="I88" s="7">
         <v>3465</v>
@@ -6100,7 +6226,7 @@
         <v>524</v>
       </c>
       <c r="H89" s="7">
-        <v>666</v>
+        <v>1830</v>
       </c>
       <c r="I89" s="7">
         <v>3280</v>
@@ -6138,7 +6264,7 @@
         <v>570</v>
       </c>
       <c r="H90" s="7">
-        <v>692</v>
+        <v>1870</v>
       </c>
       <c r="I90" s="7">
         <v>3430</v>
@@ -6176,7 +6302,7 @@
         <v>538</v>
       </c>
       <c r="H91" s="7">
-        <v>674</v>
+        <v>1820</v>
       </c>
       <c r="I91" s="7">
         <v>3205</v>
@@ -6214,7 +6340,7 @@
         <v>622</v>
       </c>
       <c r="H92" s="7">
-        <v>676</v>
+        <v>1970</v>
       </c>
       <c r="I92" s="7">
         <v>3165</v>
@@ -6252,7 +6378,7 @@
         <v>666</v>
       </c>
       <c r="H93" s="7">
-        <v>678</v>
+        <v>1890</v>
       </c>
       <c r="I93" s="7">
         <v>2835</v>
@@ -6290,7 +6416,7 @@
         <v>626</v>
       </c>
       <c r="H94" s="7">
-        <v>658</v>
+        <v>1830</v>
       </c>
       <c r="I94" s="7">
         <v>2670</v>
@@ -6328,7 +6454,7 @@
         <v>618</v>
       </c>
       <c r="H95" s="7">
-        <v>620</v>
+        <v>1860</v>
       </c>
       <c r="I95" s="7">
         <v>2700</v>
@@ -6366,7 +6492,7 @@
         <v>626</v>
       </c>
       <c r="H96" s="7">
-        <v>658</v>
+        <v>1930</v>
       </c>
       <c r="I96" s="7">
         <v>2740</v>
@@ -6404,7 +6530,7 @@
         <v>736</v>
       </c>
       <c r="H97" s="7">
-        <v>742</v>
+        <v>2030</v>
       </c>
       <c r="I97" s="7">
         <v>2675</v>
@@ -6442,7 +6568,7 @@
         <v>668</v>
       </c>
       <c r="H98" s="7">
-        <v>854</v>
+        <v>2190</v>
       </c>
       <c r="I98" s="7">
         <v>2610</v>
@@ -6480,7 +6606,7 @@
         <v>676</v>
       </c>
       <c r="H99" s="7">
-        <v>886</v>
+        <v>2310</v>
       </c>
       <c r="I99" s="7">
         <v>2645</v>
@@ -6518,7 +6644,7 @@
         <v>726</v>
       </c>
       <c r="H100" s="7">
-        <v>1086</v>
+        <v>2470</v>
       </c>
       <c r="I100" s="7">
         <v>2510</v>
@@ -6556,7 +6682,7 @@
         <v>630</v>
       </c>
       <c r="H101" s="7">
-        <v>1070</v>
+        <v>2220</v>
       </c>
       <c r="I101" s="7">
         <v>2445</v>
@@ -6594,7 +6720,7 @@
         <v>740</v>
       </c>
       <c r="H102" s="7">
-        <v>1094</v>
+        <v>2180</v>
       </c>
       <c r="I102" s="7">
         <v>2485</v>
@@ -6632,7 +6758,7 @@
         <v>670</v>
       </c>
       <c r="H103" s="7">
-        <v>1150</v>
+        <v>2020</v>
       </c>
       <c r="I103" s="7">
         <v>2300</v>
@@ -6670,7 +6796,7 @@
         <v>736</v>
       </c>
       <c r="H104" s="7">
-        <v>1240</v>
+        <v>1990</v>
       </c>
       <c r="I104" s="7">
         <v>2225</v>
@@ -6708,7 +6834,7 @@
         <v>748</v>
       </c>
       <c r="H105" s="7">
-        <v>1406</v>
+        <v>1910</v>
       </c>
       <c r="I105" s="7">
         <v>2040</v>
@@ -6746,7 +6872,7 @@
         <v>708</v>
       </c>
       <c r="H106" s="7">
-        <v>1372</v>
+        <v>1910</v>
       </c>
       <c r="I106" s="7">
         <v>2260</v>
@@ -6784,7 +6910,7 @@
         <v>698</v>
       </c>
       <c r="H107" s="7">
-        <v>1226</v>
+        <v>1840</v>
       </c>
       <c r="I107" s="7">
         <v>2230</v>
@@ -6822,7 +6948,7 @@
         <v>710</v>
       </c>
       <c r="H108" s="7">
-        <v>1186</v>
+        <v>2140</v>
       </c>
       <c r="I108" s="7">
         <v>2155</v>
@@ -6860,7 +6986,7 @@
         <v>690</v>
       </c>
       <c r="H109" s="7">
-        <v>1144</v>
+        <v>2120</v>
       </c>
       <c r="I109" s="7">
         <v>2025</v>
@@ -6898,7 +7024,7 @@
         <v>686</v>
       </c>
       <c r="H110" s="7">
-        <v>1112</v>
+        <v>2170</v>
       </c>
       <c r="I110" s="7">
         <v>1965</v>
@@ -6936,7 +7062,7 @@
         <v>718</v>
       </c>
       <c r="H111" s="7">
-        <v>1002</v>
+        <v>2230</v>
       </c>
       <c r="I111" s="7">
         <v>1835</v>
@@ -6974,7 +7100,7 @@
         <v>710</v>
       </c>
       <c r="H112" s="7">
-        <v>1124</v>
+        <v>2310</v>
       </c>
       <c r="I112" s="7">
         <v>1820</v>
@@ -7012,7 +7138,7 @@
         <v>602</v>
       </c>
       <c r="H113" s="7">
-        <v>1016</v>
+        <v>2030</v>
       </c>
       <c r="I113" s="7">
         <v>1630</v>
@@ -7050,7 +7176,7 @@
         <v>610</v>
       </c>
       <c r="H114" s="7">
-        <v>996</v>
+        <v>1855</v>
       </c>
       <c r="I114" s="7">
         <v>1625</v>
@@ -7088,7 +7214,7 @@
         <v>560</v>
       </c>
       <c r="H115" s="7">
-        <v>986</v>
+        <v>1711</v>
       </c>
       <c r="I115" s="7">
         <v>1820</v>
@@ -7126,7 +7252,7 @@
         <v>624</v>
       </c>
       <c r="H116" s="7">
-        <v>1076</v>
+        <v>1980</v>
       </c>
       <c r="I116" s="7">
         <v>1775</v>
@@ -7164,7 +7290,7 @@
         <v>614</v>
       </c>
       <c r="H117" s="7">
-        <v>1122</v>
+        <v>1999</v>
       </c>
       <c r="I117" s="7">
         <v>1650</v>
@@ -7202,7 +7328,7 @@
         <v>612</v>
       </c>
       <c r="H118" s="7">
-        <v>1158</v>
+        <v>1976</v>
       </c>
       <c r="I118" s="7">
         <v>1740</v>
@@ -7240,7 +7366,7 @@
         <v>620</v>
       </c>
       <c r="H119" s="7">
-        <v>1370</v>
+        <v>1985</v>
       </c>
       <c r="I119" s="7">
         <v>1705</v>
@@ -7278,7 +7404,7 @@
         <v>686</v>
       </c>
       <c r="H120" s="7">
-        <v>1832</v>
+        <v>2310</v>
       </c>
       <c r="I120" s="7">
         <v>1745</v>
@@ -7316,7 +7442,7 @@
         <v>678</v>
       </c>
       <c r="H121" s="7">
-        <v>1890</v>
+        <v>2270</v>
       </c>
       <c r="I121" s="7">
         <v>1825</v>
@@ -7354,7 +7480,7 @@
         <v>646</v>
       </c>
       <c r="H122" s="7">
-        <v>1642</v>
+        <v>2185</v>
       </c>
       <c r="I122" s="7">
         <v>1825</v>
@@ -7392,7 +7518,7 @@
         <v>766</v>
       </c>
       <c r="H123" s="7">
-        <v>1924</v>
+        <v>2350</v>
       </c>
       <c r="I123" s="7">
         <v>1715</v>
@@ -7430,7 +7556,7 @@
         <v>808</v>
       </c>
       <c r="H124" s="7">
-        <v>2080</v>
+        <v>2725</v>
       </c>
       <c r="I124" s="7">
         <v>1720</v>
@@ -7468,7 +7594,7 @@
         <v>646</v>
       </c>
       <c r="H125" s="7">
-        <v>2120</v>
+        <v>2160</v>
       </c>
       <c r="I125" s="7">
         <v>1695</v>
@@ -7506,7 +7632,7 @@
         <v>678</v>
       </c>
       <c r="H126" s="7">
-        <v>2400</v>
+        <v>2265</v>
       </c>
       <c r="I126" s="7">
         <v>1720</v>
@@ -7544,7 +7670,7 @@
         <v>722</v>
       </c>
       <c r="H127" s="7">
-        <v>3300</v>
+        <v>2195</v>
       </c>
       <c r="I127" s="7">
         <v>1635</v>
@@ -7582,7 +7708,7 @@
         <v>692</v>
       </c>
       <c r="H128" s="7">
-        <v>4980</v>
+        <v>2585</v>
       </c>
       <c r="I128" s="7">
         <v>1535</v>
@@ -7620,7 +7746,7 @@
         <v>990</v>
       </c>
       <c r="H129" s="7">
-        <v>4700</v>
+        <v>2830</v>
       </c>
       <c r="I129" s="7">
         <v>1500</v>
@@ -7658,7 +7784,7 @@
         <v>938</v>
       </c>
       <c r="H130" s="7">
-        <v>4020</v>
+        <v>2845</v>
       </c>
       <c r="I130" s="7">
         <v>1570</v>
@@ -7696,7 +7822,7 @@
         <v>878</v>
       </c>
       <c r="H131" s="7">
-        <v>3980</v>
+        <v>3200</v>
       </c>
       <c r="I131" s="7">
         <v>1520</v>
@@ -7734,7 +7860,7 @@
         <v>1074</v>
       </c>
       <c r="H132" s="7">
-        <v>3860</v>
+        <v>3070</v>
       </c>
       <c r="I132" s="7">
         <v>1465</v>
@@ -7772,7 +7898,7 @@
         <v>1074</v>
       </c>
       <c r="H133" s="7">
-        <v>2880</v>
+        <v>2860</v>
       </c>
       <c r="I133" s="7">
         <v>1430</v>
@@ -7810,7 +7936,7 @@
         <v>978</v>
       </c>
       <c r="H134" s="7">
-        <v>1786</v>
+        <v>2545</v>
       </c>
       <c r="I134" s="7">
         <v>1435</v>
@@ -7848,7 +7974,7 @@
         <v>966</v>
       </c>
       <c r="H135" s="7">
-        <v>2180</v>
+        <v>2750</v>
       </c>
       <c r="I135" s="7">
         <v>1515</v>
@@ -7886,7 +8012,7 @@
         <v>928</v>
       </c>
       <c r="H136" s="7">
-        <v>1930</v>
+        <v>2795</v>
       </c>
       <c r="I136" s="7">
         <v>1505</v>
@@ -7924,7 +8050,7 @@
         <v>928</v>
       </c>
       <c r="H137" s="7">
-        <v>2360</v>
+        <v>2920</v>
       </c>
       <c r="I137" s="7">
         <v>1590</v>
@@ -7962,7 +8088,7 @@
         <v>854</v>
       </c>
       <c r="H138" s="7">
-        <v>2000</v>
+        <v>2830</v>
       </c>
       <c r="I138" s="7">
         <v>1625</v>
@@ -8000,7 +8126,7 @@
         <v>872</v>
       </c>
       <c r="H139" s="7">
-        <v>1700</v>
+        <v>3170</v>
       </c>
       <c r="I139" s="7">
         <v>1610</v>
@@ -8038,7 +8164,7 @@
         <v>790</v>
       </c>
       <c r="H140" s="7">
-        <v>1746</v>
+        <v>2780</v>
       </c>
       <c r="I140" s="7">
         <v>1610</v>
@@ -8076,7 +8202,7 @@
         <v>730</v>
       </c>
       <c r="H141" s="7">
-        <v>1520</v>
+        <v>2730</v>
       </c>
       <c r="I141" s="7">
         <v>1680</v>
@@ -8114,7 +8240,7 @@
         <v>794</v>
       </c>
       <c r="H142" s="7">
-        <v>1422</v>
+        <v>2645</v>
       </c>
       <c r="I142" s="7">
         <v>1700</v>
@@ -8152,7 +8278,7 @@
         <v>816</v>
       </c>
       <c r="H143" s="7">
-        <v>1330</v>
+        <v>2210</v>
       </c>
       <c r="I143" s="7">
         <v>1940</v>
@@ -8190,7 +8316,7 @@
         <v>870</v>
       </c>
       <c r="H144" s="7">
-        <v>1210</v>
+        <v>2265</v>
       </c>
       <c r="I144" s="7">
         <v>1870</v>
@@ -8228,7 +8354,7 @@
         <v>822</v>
       </c>
       <c r="H145" s="7">
-        <v>1596</v>
+        <v>2060</v>
       </c>
       <c r="I145" s="7">
         <v>1905</v>
@@ -8266,7 +8392,7 @@
         <v>840</v>
       </c>
       <c r="H146" s="7">
-        <v>1456</v>
+        <v>2180</v>
       </c>
       <c r="I146" s="7">
         <v>1840</v>
@@ -8304,7 +8430,7 @@
         <v>878</v>
       </c>
       <c r="H147" s="7">
-        <v>1360</v>
+        <v>1952</v>
       </c>
       <c r="I147" s="7">
         <v>1995</v>
@@ -8342,7 +8468,7 @@
         <v>824</v>
       </c>
       <c r="H148" s="7">
-        <v>1188</v>
+        <v>1740</v>
       </c>
       <c r="I148" s="7">
         <v>1925</v>
@@ -8380,7 +8506,7 @@
         <v>722</v>
       </c>
       <c r="H149" s="7">
-        <v>880</v>
+        <v>1804</v>
       </c>
       <c r="I149" s="7">
         <v>1945</v>
@@ -8418,7 +8544,7 @@
         <v>612</v>
       </c>
       <c r="H150" s="7">
-        <v>1062</v>
+        <v>1460</v>
       </c>
       <c r="I150" s="7">
         <v>1895</v>
@@ -8456,7 +8582,7 @@
         <v>594</v>
       </c>
       <c r="H151" s="7">
-        <v>1070</v>
+        <v>1450</v>
       </c>
       <c r="I151" s="7">
         <v>1830</v>
@@ -8494,7 +8620,7 @@
         <v>630</v>
       </c>
       <c r="H152" s="7">
-        <v>1000</v>
+        <v>1635</v>
       </c>
       <c r="I152" s="7">
         <v>1760</v>
@@ -8532,7 +8658,7 @@
         <v>664</v>
       </c>
       <c r="H153" s="7">
-        <v>932</v>
+        <v>1683</v>
       </c>
       <c r="I153" s="7">
         <v>1725</v>
@@ -8570,7 +8696,7 @@
         <v>690</v>
       </c>
       <c r="H154" s="7">
-        <v>814</v>
+        <v>1719</v>
       </c>
       <c r="I154" s="7">
         <v>1555</v>
@@ -8608,7 +8734,7 @@
         <v>684</v>
       </c>
       <c r="H155" s="7">
-        <v>888</v>
+        <v>1621</v>
       </c>
       <c r="I155" s="7">
         <v>1655</v>
@@ -8646,7 +8772,7 @@
         <v>730</v>
       </c>
       <c r="H156" s="7">
-        <v>1088</v>
+        <v>1575</v>
       </c>
       <c r="I156" s="7">
         <v>1680</v>
@@ -8684,7 +8810,7 @@
         <v>700</v>
       </c>
       <c r="H157" s="7">
-        <v>1146</v>
+        <v>1720</v>
       </c>
       <c r="I157" s="7">
         <v>1715</v>
@@ -8722,7 +8848,7 @@
         <v>678</v>
       </c>
       <c r="H158" s="7">
-        <v>1180</v>
+        <v>1730</v>
       </c>
       <c r="I158" s="7">
         <v>1785</v>
@@ -8760,7 +8886,7 @@
         <v>636</v>
       </c>
       <c r="H159" s="7">
-        <v>960</v>
+        <v>1635</v>
       </c>
       <c r="I159" s="7">
         <v>1675</v>
@@ -8798,7 +8924,7 @@
         <v>573</v>
       </c>
       <c r="H160" s="7">
-        <v>948</v>
+        <v>1487</v>
       </c>
       <c r="I160" s="7">
         <v>1605</v>
@@ -8836,7 +8962,7 @@
         <v>587</v>
       </c>
       <c r="H161" s="7">
-        <v>884</v>
+        <v>1427</v>
       </c>
       <c r="I161" s="7">
         <v>1595</v>
@@ -8874,7 +9000,7 @@
         <v>626</v>
       </c>
       <c r="H162" s="7">
-        <v>874</v>
+        <v>1263</v>
       </c>
       <c r="I162" s="7">
         <v>1585</v>
@@ -8912,7 +9038,7 @@
         <v>596</v>
       </c>
       <c r="H163" s="7">
-        <v>740</v>
+        <v>1284</v>
       </c>
       <c r="I163" s="7">
         <v>1515</v>
@@ -8950,7 +9076,7 @@
         <v>644</v>
       </c>
       <c r="H164" s="7">
-        <v>736</v>
+        <v>1257</v>
       </c>
       <c r="I164" s="7">
         <v>1610</v>
@@ -8988,7 +9114,7 @@
         <v>638</v>
       </c>
       <c r="H165" s="7">
-        <v>656</v>
+        <v>1170</v>
       </c>
       <c r="I165" s="7">
         <v>1575</v>
@@ -9026,7 +9152,7 @@
         <v>571</v>
       </c>
       <c r="H166" s="7">
-        <v>658</v>
+        <v>1145</v>
       </c>
       <c r="I166" s="7">
         <v>1540</v>
@@ -9064,7 +9190,7 @@
         <v>555</v>
       </c>
       <c r="H167" s="7">
-        <v>666</v>
+        <v>1049</v>
       </c>
       <c r="I167" s="7">
         <v>1615</v>
@@ -9102,7 +9228,7 @@
         <v>527</v>
       </c>
       <c r="H168" s="7">
-        <v>646</v>
+        <v>1013</v>
       </c>
       <c r="I168" s="7">
         <v>1640</v>
@@ -9140,7 +9266,7 @@
         <v>540</v>
       </c>
       <c r="H169" s="7">
-        <v>564</v>
+        <v>950</v>
       </c>
       <c r="I169" s="7">
         <v>1670</v>
@@ -9178,7 +9304,7 @@
         <v>572</v>
       </c>
       <c r="H170" s="7">
-        <v>600</v>
+        <v>1088</v>
       </c>
       <c r="I170" s="7">
         <v>1695</v>
@@ -9216,7 +9342,7 @@
         <v>622</v>
       </c>
       <c r="H171" s="7">
-        <v>740</v>
+        <v>1189</v>
       </c>
       <c r="I171" s="7">
         <v>1705</v>
@@ -9254,7 +9380,7 @@
         <v>610</v>
       </c>
       <c r="H172" s="7">
-        <v>822</v>
+        <v>1425</v>
       </c>
       <c r="I172" s="7">
         <v>1680</v>
@@ -9292,7 +9418,7 @@
         <v>644</v>
       </c>
       <c r="H173" s="7">
-        <v>940</v>
+        <v>1488</v>
       </c>
       <c r="I173" s="7">
         <v>1705</v>
@@ -9330,7 +9456,7 @@
         <v>656</v>
       </c>
       <c r="H174" s="7">
-        <v>938</v>
+        <v>1345</v>
       </c>
       <c r="I174" s="7">
         <v>1785</v>
@@ -9368,7 +9494,7 @@
         <v>626</v>
       </c>
       <c r="H175" s="7">
-        <v>974</v>
+        <v>1449</v>
       </c>
       <c r="I175" s="7">
         <v>1925</v>
@@ -9406,7 +9532,7 @@
         <v>658</v>
       </c>
       <c r="H176" s="7">
-        <v>804</v>
+        <v>1411</v>
       </c>
       <c r="I176" s="7">
         <v>1865</v>
@@ -9444,7 +9570,7 @@
         <v>724</v>
       </c>
       <c r="H177" s="7">
-        <v>810</v>
+        <v>1482</v>
       </c>
       <c r="I177" s="7">
         <v>1915</v>
@@ -9482,7 +9608,7 @@
         <v>692</v>
       </c>
       <c r="H178" s="7">
-        <v>814</v>
+        <v>1580</v>
       </c>
       <c r="I178" s="7">
         <v>1960</v>
@@ -9520,7 +9646,7 @@
         <v>754</v>
       </c>
       <c r="H179" s="7">
-        <v>794</v>
+        <v>1593</v>
       </c>
       <c r="I179" s="7">
         <v>2055</v>
@@ -9558,7 +9684,7 @@
         <v>776</v>
       </c>
       <c r="H180" s="7">
-        <v>884</v>
+        <v>1608</v>
       </c>
       <c r="I180" s="7">
         <v>2310</v>
@@ -9596,7 +9722,7 @@
         <v>798</v>
       </c>
       <c r="H181" s="7">
-        <v>864</v>
+        <v>1621</v>
       </c>
       <c r="I181" s="7">
         <v>2365</v>
@@ -9634,7 +9760,7 @@
         <v>800</v>
       </c>
       <c r="H182" s="7">
-        <v>646</v>
+        <v>1512</v>
       </c>
       <c r="I182" s="7">
         <v>2375</v>
@@ -9672,7 +9798,7 @@
         <v>884</v>
       </c>
       <c r="H183" s="7">
-        <v>704</v>
+        <v>1549</v>
       </c>
       <c r="I183" s="7">
         <v>2390</v>
@@ -9710,7 +9836,7 @@
         <v>896</v>
       </c>
       <c r="H184" s="7">
-        <v>638</v>
+        <v>1484</v>
       </c>
       <c r="I184" s="7">
         <v>2200</v>
@@ -9748,7 +9874,7 @@
         <v>864</v>
       </c>
       <c r="H185" s="7">
-        <v>614</v>
+        <v>1471</v>
       </c>
       <c r="I185" s="7">
         <v>2060</v>
@@ -9786,7 +9912,7 @@
         <v>844</v>
       </c>
       <c r="H186" s="7">
-        <v>580</v>
+        <v>1471</v>
       </c>
       <c r="I186" s="7">
         <v>2015</v>
@@ -9824,7 +9950,7 @@
         <v>826</v>
       </c>
       <c r="H187" s="7">
-        <v>582</v>
+        <v>1537</v>
       </c>
       <c r="I187" s="7">
         <v>1885</v>
@@ -9862,7 +9988,7 @@
         <v>772</v>
       </c>
       <c r="H188" s="7">
-        <v>612</v>
+        <v>1531</v>
       </c>
       <c r="I188" s="7">
         <v>1915</v>
@@ -9900,7 +10026,7 @@
         <v>834</v>
       </c>
       <c r="H189" s="7">
-        <v>662</v>
+        <v>1626</v>
       </c>
       <c r="I189" s="7">
         <v>1950</v>
@@ -9938,7 +10064,7 @@
         <v>806</v>
       </c>
       <c r="H190" s="7">
-        <v>714</v>
+        <v>1537</v>
       </c>
       <c r="I190" s="7">
         <v>2040</v>
@@ -9976,7 +10102,7 @@
         <v>814</v>
       </c>
       <c r="H191" s="7">
-        <v>738</v>
+        <v>1565</v>
       </c>
       <c r="I191" s="7">
         <v>2095</v>
@@ -10014,7 +10140,7 @@
         <v>798</v>
       </c>
       <c r="H192" s="7">
-        <v>740</v>
+        <v>1580</v>
       </c>
       <c r="I192" s="7">
         <v>2165</v>
@@ -10052,7 +10178,7 @@
         <v>768</v>
       </c>
       <c r="H193" s="7">
-        <v>646</v>
+        <v>1537</v>
       </c>
       <c r="I193" s="7">
         <v>1965</v>
@@ -10090,7 +10216,7 @@
         <v>772</v>
       </c>
       <c r="H194" s="7">
-        <v>696</v>
+        <v>1622</v>
       </c>
       <c r="I194" s="7">
         <v>2010</v>
@@ -10128,7 +10254,7 @@
         <v>794</v>
       </c>
       <c r="H195" s="7">
-        <v>758</v>
+        <v>1683</v>
       </c>
       <c r="I195" s="7">
         <v>2010</v>
@@ -10166,7 +10292,7 @@
         <v>850</v>
       </c>
       <c r="H196" s="7">
-        <v>744</v>
+        <v>1832</v>
       </c>
       <c r="I196" s="7">
         <v>2090</v>
@@ -10204,7 +10330,7 @@
         <v>900</v>
       </c>
       <c r="H197" s="7">
-        <v>760</v>
+        <v>1925</v>
       </c>
       <c r="I197" s="7">
         <v>2120</v>
@@ -10242,7 +10368,7 @@
         <v>1040</v>
       </c>
       <c r="H198" s="7">
-        <v>876</v>
+        <v>1923</v>
       </c>
       <c r="I198" s="7">
         <v>2265</v>
@@ -10280,7 +10406,7 @@
         <v>1062</v>
       </c>
       <c r="H199" s="7">
-        <v>806</v>
+        <v>2115</v>
       </c>
       <c r="I199" s="7">
         <v>2485</v>
@@ -10318,7 +10444,7 @@
         <v>1158</v>
       </c>
       <c r="H200" s="7">
-        <v>848</v>
+        <v>2415</v>
       </c>
       <c r="I200" s="7">
         <v>2645</v>
@@ -10356,7 +10482,7 @@
         <v>1224</v>
       </c>
       <c r="H201" s="7">
-        <v>1174</v>
+        <v>2275</v>
       </c>
       <c r="I201" s="7">
         <v>3090</v>
@@ -10394,7 +10520,7 @@
         <v>1216</v>
       </c>
       <c r="H202" s="7">
-        <v>1166</v>
+        <v>2550</v>
       </c>
       <c r="I202" s="7">
         <v>2965</v>
@@ -10432,7 +10558,7 @@
         <v>1250</v>
       </c>
       <c r="H203" s="7">
-        <v>1086</v>
+        <v>2480</v>
       </c>
       <c r="I203" s="7">
         <v>2935</v>
@@ -10470,7 +10596,7 @@
         <v>1286</v>
       </c>
       <c r="H204" s="7">
-        <v>1132</v>
+        <v>2615</v>
       </c>
       <c r="I204" s="7">
         <v>3095</v>
@@ -10508,7 +10634,7 @@
         <v>1332</v>
       </c>
       <c r="H205" s="7">
-        <v>1054</v>
+        <v>2750</v>
       </c>
       <c r="I205" s="7">
         <v>2820</v>
@@ -10546,7 +10672,7 @@
         <v>1186</v>
       </c>
       <c r="H206" s="7">
-        <v>950</v>
+        <v>2415</v>
       </c>
       <c r="I206" s="7">
         <v>2595</v>
@@ -10584,7 +10710,7 @@
         <v>1198</v>
       </c>
       <c r="H207" s="7">
-        <v>990</v>
+        <v>2415</v>
       </c>
       <c r="I207" s="7">
         <v>2730</v>
@@ -10622,7 +10748,7 @@
         <v>1212</v>
       </c>
       <c r="H208" s="7">
-        <v>1042</v>
+        <v>2385</v>
       </c>
       <c r="I208" s="7">
         <v>2780</v>
@@ -10660,7 +10786,7 @@
         <v>1274</v>
       </c>
       <c r="H209" s="7">
-        <v>1084</v>
+        <v>2510</v>
       </c>
       <c r="I209" s="7">
         <v>3020</v>
@@ -10698,7 +10824,7 @@
         <v>1284</v>
       </c>
       <c r="H210" s="7">
-        <v>1090</v>
+        <v>2500</v>
       </c>
       <c r="I210" s="7">
         <v>2980</v>
@@ -10736,7 +10862,7 @@
         <v>1386</v>
       </c>
       <c r="H211" s="7">
-        <v>1166</v>
+        <v>2445</v>
       </c>
       <c r="I211" s="7">
         <v>2880</v>
@@ -10774,7 +10900,7 @@
         <v>1404</v>
       </c>
       <c r="H212" s="7">
-        <v>1164</v>
+        <v>2255</v>
       </c>
       <c r="I212" s="7">
         <v>2890</v>
@@ -10812,7 +10938,7 @@
         <v>1592</v>
       </c>
       <c r="H213" s="7">
-        <v>1192</v>
+        <v>2375</v>
       </c>
       <c r="I213" s="7">
         <v>2875</v>
@@ -10850,7 +10976,7 @@
         <v>1590</v>
       </c>
       <c r="H214" s="7">
-        <v>1234</v>
+        <v>2400</v>
       </c>
       <c r="I214" s="7">
         <v>2845</v>
@@ -10888,7 +11014,7 @@
         <v>1604</v>
       </c>
       <c r="H215" s="7">
-        <v>1200</v>
+        <v>2390</v>
       </c>
       <c r="I215" s="7">
         <v>3065</v>
@@ -10926,7 +11052,7 @@
         <v>1510</v>
       </c>
       <c r="H216" s="7">
-        <v>1198</v>
+        <v>2375</v>
       </c>
       <c r="I216" s="7">
         <v>2830</v>
@@ -10964,7 +11090,7 @@
         <v>1464</v>
       </c>
       <c r="H217" s="7">
-        <v>1178</v>
+        <v>2325</v>
       </c>
       <c r="I217" s="7">
         <v>2745</v>
@@ -11002,7 +11128,7 @@
         <v>1460</v>
       </c>
       <c r="H218" s="7">
-        <v>1162</v>
+        <v>2570</v>
       </c>
       <c r="I218" s="7">
         <v>2740</v>
@@ -11040,7 +11166,7 @@
         <v>1560</v>
       </c>
       <c r="H219" s="7">
-        <v>1170</v>
+        <v>2445</v>
       </c>
       <c r="I219" s="7">
         <v>2785</v>
@@ -11078,7 +11204,7 @@
         <v>1440</v>
       </c>
       <c r="H220" s="7">
-        <v>1000</v>
+        <v>2175</v>
       </c>
       <c r="I220" s="7">
         <v>2605</v>
@@ -11116,7 +11242,7 @@
         <v>1352</v>
       </c>
       <c r="H221" s="7">
-        <v>1120</v>
+        <v>2020</v>
       </c>
       <c r="I221" s="7">
         <v>2605</v>
@@ -11154,7 +11280,7 @@
         <v>1356</v>
       </c>
       <c r="H222" s="7">
-        <v>1024</v>
+        <v>2155</v>
       </c>
       <c r="I222" s="7">
         <v>2700</v>
@@ -11192,7 +11318,7 @@
         <v>1314</v>
       </c>
       <c r="H223" s="7">
-        <v>1046</v>
+        <v>2190</v>
       </c>
       <c r="I223" s="7">
         <v>2710</v>
@@ -11230,7 +11356,7 @@
         <v>1248</v>
       </c>
       <c r="H224" s="7">
-        <v>1010</v>
+        <v>2235</v>
       </c>
       <c r="I224" s="7">
         <v>2685</v>
@@ -11268,7 +11394,7 @@
         <v>1208</v>
       </c>
       <c r="H225" s="7">
-        <v>994</v>
+        <v>2315</v>
       </c>
       <c r="I225" s="7">
         <v>2610</v>
@@ -11306,7 +11432,7 @@
         <v>1164</v>
       </c>
       <c r="H226" s="7">
-        <v>940</v>
+        <v>2250</v>
       </c>
       <c r="I226" s="7">
         <v>2590</v>
@@ -11344,7 +11470,7 @@
         <v>1150</v>
       </c>
       <c r="H227" s="7">
-        <v>986</v>
+        <v>2235</v>
       </c>
       <c r="I227" s="7">
         <v>2510</v>
@@ -11382,7 +11508,7 @@
         <v>994</v>
       </c>
       <c r="H228" s="7">
-        <v>872</v>
+        <v>2160</v>
       </c>
       <c r="I228" s="7">
         <v>2660</v>
@@ -11420,7 +11546,7 @@
         <v>1054</v>
       </c>
       <c r="H229" s="7">
-        <v>854</v>
+        <v>2445</v>
       </c>
       <c r="I229" s="7">
         <v>2650</v>
@@ -11458,7 +11584,7 @@
         <v>1074</v>
       </c>
       <c r="H230" s="7">
-        <v>874</v>
+        <v>2400</v>
       </c>
       <c r="I230" s="7">
         <v>2580</v>
@@ -11496,7 +11622,7 @@
         <v>1002</v>
       </c>
       <c r="H231" s="7">
-        <v>830</v>
+        <v>2290</v>
       </c>
       <c r="I231" s="7">
         <v>2515</v>
@@ -11534,7 +11660,7 @@
         <v>932</v>
       </c>
       <c r="H232" s="7">
-        <v>892</v>
+        <v>2310</v>
       </c>
       <c r="I232" s="7">
         <v>2465</v>
@@ -11572,7 +11698,7 @@
         <v>986</v>
       </c>
       <c r="H233" s="7">
-        <v>902</v>
+        <v>2275</v>
       </c>
       <c r="I233" s="7">
         <v>2485</v>
@@ -11610,7 +11736,7 @@
         <v>876</v>
       </c>
       <c r="H234" s="7">
-        <v>828</v>
+        <v>1795</v>
       </c>
       <c r="I234" s="7">
         <v>2555</v>
@@ -11648,7 +11774,7 @@
         <v>746</v>
       </c>
       <c r="H235" s="7">
-        <v>640</v>
+        <v>1512</v>
       </c>
       <c r="I235" s="7">
         <v>2475</v>
@@ -11686,7 +11812,7 @@
         <v>600</v>
       </c>
       <c r="H236" s="7">
-        <v>688</v>
+        <v>1144</v>
       </c>
       <c r="I236" s="7">
         <v>2585</v>
@@ -11724,7 +11850,7 @@
         <v>581</v>
       </c>
       <c r="H237" s="7">
-        <v>716</v>
+        <v>1113</v>
       </c>
       <c r="I237" s="7">
         <v>2675</v>
@@ -11761,8 +11887,8 @@
       <c r="G238" s="7">
         <v>585</v>
       </c>
-      <c r="H238" s="9">
-        <v>583.4</v>
+      <c r="H238" s="7">
+        <v>1099</v>
       </c>
       <c r="I238" s="7">
         <v>2480</v>
@@ -11799,8 +11925,8 @@
       <c r="G239" s="7">
         <v>636</v>
       </c>
-      <c r="H239" s="9">
-        <v>491.2</v>
+      <c r="H239" s="7">
+        <v>1154</v>
       </c>
       <c r="I239" s="7">
         <v>2450</v>
@@ -11837,8 +11963,8 @@
       <c r="G240" s="7">
         <v>624</v>
       </c>
-      <c r="H240" s="9">
-        <v>534.4</v>
+      <c r="H240" s="7">
+        <v>1069</v>
       </c>
       <c r="I240" s="7">
         <v>2495</v>
@@ -11875,8 +12001,8 @@
       <c r="G241" s="7">
         <v>770</v>
       </c>
-      <c r="H241" s="9">
-        <v>516.4</v>
+      <c r="H241" s="7">
+        <v>1430</v>
       </c>
       <c r="I241" s="7">
         <v>2575</v>
@@ -11913,8 +12039,8 @@
       <c r="G242" s="7">
         <v>762</v>
       </c>
-      <c r="H242" s="9">
-        <v>566.4</v>
+      <c r="H242" s="7">
+        <v>1368</v>
       </c>
       <c r="I242" s="7">
         <v>2595</v>
@@ -11952,7 +12078,7 @@
         <v>734</v>
       </c>
       <c r="H243" s="7">
-        <v>624</v>
+        <v>1302</v>
       </c>
       <c r="I243" s="7">
         <v>2835</v>
@@ -11990,7 +12116,7 @@
         <v>798</v>
       </c>
       <c r="H244" s="7">
-        <v>638</v>
+        <v>1500</v>
       </c>
       <c r="I244" s="7">
         <v>2875</v>
@@ -12028,7 +12154,7 @@
         <v>798</v>
       </c>
       <c r="H245" s="7">
-        <v>634</v>
+        <v>1490</v>
       </c>
       <c r="I245" s="7">
         <v>2925</v>
@@ -12065,8 +12191,8 @@
       <c r="G246" s="7">
         <v>714</v>
       </c>
-      <c r="H246" s="9">
-        <v>575.20000000000005</v>
+      <c r="H246" s="7">
+        <v>1323</v>
       </c>
       <c r="I246" s="7">
         <v>2740</v>
@@ -12103,8 +12229,8 @@
       <c r="G247" s="7">
         <v>732</v>
       </c>
-      <c r="H247" s="9">
-        <v>527.79999999999995</v>
+      <c r="H247" s="7">
+        <v>1292</v>
       </c>
       <c r="I247" s="7">
         <v>2480</v>
@@ -12141,8 +12267,8 @@
       <c r="G248" s="7">
         <v>688</v>
       </c>
-      <c r="H248" s="9">
-        <v>489.8</v>
+      <c r="H248" s="7">
+        <v>1111</v>
       </c>
       <c r="I248" s="7">
         <v>2400</v>
@@ -12179,8 +12305,8 @@
       <c r="G249" s="7">
         <v>776</v>
       </c>
-      <c r="H249" s="9">
-        <v>578.20000000000005</v>
+      <c r="H249" s="7">
+        <v>1325</v>
       </c>
       <c r="I249" s="7">
         <v>2425</v>
@@ -12218,7 +12344,7 @@
         <v>698</v>
       </c>
       <c r="H250" s="7">
-        <v>562</v>
+        <v>1422</v>
       </c>
       <c r="I250" s="7">
         <v>2425</v>
@@ -12255,8 +12381,8 @@
       <c r="G251" s="7">
         <v>666</v>
       </c>
-      <c r="H251" s="9">
-        <v>551.79999999999995</v>
+      <c r="H251" s="7">
+        <v>1235</v>
       </c>
       <c r="I251" s="7">
         <v>2440</v>
@@ -12294,7 +12420,7 @@
         <v>749</v>
       </c>
       <c r="H252" s="7">
-        <v>623</v>
+        <v>1430</v>
       </c>
       <c r="I252" s="7">
         <v>2595</v>
@@ -12332,7 +12458,7 @@
         <v>733</v>
       </c>
       <c r="H253" s="7">
-        <v>683</v>
+        <v>1382</v>
       </c>
       <c r="I253" s="7">
         <v>2480</v>
@@ -12370,7 +12496,7 @@
         <v>656</v>
       </c>
       <c r="H254" s="7">
-        <v>677</v>
+        <v>1161</v>
       </c>
       <c r="I254" s="7">
         <v>2375</v>
@@ -12408,7 +12534,7 @@
         <v>616</v>
       </c>
       <c r="H255" s="7">
-        <v>660</v>
+        <v>1122</v>
       </c>
       <c r="I255" s="7">
         <v>2395</v>
@@ -12446,7 +12572,7 @@
         <v>610</v>
       </c>
       <c r="H256" s="7">
-        <v>628</v>
+        <v>1142</v>
       </c>
       <c r="I256" s="7">
         <v>2480</v>
@@ -12483,8 +12609,8 @@
       <c r="G257" s="7">
         <v>572</v>
       </c>
-      <c r="H257" s="9">
-        <v>525.6</v>
+      <c r="H257" s="7">
+        <v>1068</v>
       </c>
       <c r="I257" s="7">
         <v>2400</v>
@@ -12521,8 +12647,8 @@
       <c r="G258" s="9">
         <v>599.6</v>
       </c>
-      <c r="H258" s="9">
-        <v>527.79999999999995</v>
+      <c r="H258" s="7">
+        <v>1131</v>
       </c>
       <c r="I258" s="7">
         <v>2405</v>
@@ -12559,8 +12685,8 @@
       <c r="G259" s="9">
         <v>571.79999999999995</v>
       </c>
-      <c r="H259" s="9">
-        <v>494.6</v>
+      <c r="H259" s="7">
+        <v>1183</v>
       </c>
       <c r="I259" s="7">
         <v>2260</v>
@@ -12597,8 +12723,8 @@
       <c r="G260" s="7">
         <v>644</v>
       </c>
-      <c r="H260" s="9">
-        <v>542.6</v>
+      <c r="H260" s="7">
+        <v>1204</v>
       </c>
       <c r="I260" s="7">
         <v>2275</v>
@@ -12635,8 +12761,8 @@
       <c r="G261" s="7">
         <v>644</v>
       </c>
-      <c r="H261" s="9">
-        <v>562.20000000000005</v>
+      <c r="H261" s="7">
+        <v>1153</v>
       </c>
       <c r="I261" s="7">
         <v>2280</v>
@@ -12673,8 +12799,8 @@
       <c r="G262" s="7">
         <v>680</v>
       </c>
-      <c r="H262" s="9">
-        <v>533.20000000000005</v>
+      <c r="H262" s="7">
+        <v>1124</v>
       </c>
       <c r="I262" s="7">
         <v>2265</v>
@@ -12711,8 +12837,8 @@
       <c r="G263" s="7">
         <v>764</v>
       </c>
-      <c r="H263" s="9">
-        <v>581.20000000000005</v>
+      <c r="H263" s="7">
+        <v>1101</v>
       </c>
       <c r="I263" s="7">
         <v>1985</v>
@@ -12749,8 +12875,8 @@
       <c r="G264" s="7">
         <v>670</v>
       </c>
-      <c r="H264" s="9">
-        <v>514.20000000000005</v>
+      <c r="H264" s="7">
+        <v>1058</v>
       </c>
       <c r="I264" s="7">
         <v>1700</v>
@@ -12787,8 +12913,8 @@
       <c r="G265" s="7">
         <v>646</v>
       </c>
-      <c r="H265" s="9">
-        <v>532.4</v>
+      <c r="H265" s="7">
+        <v>998</v>
       </c>
       <c r="I265" s="7">
         <v>1575</v>
@@ -12825,8 +12951,8 @@
       <c r="G266" s="7">
         <v>680</v>
       </c>
-      <c r="H266" s="9">
-        <v>511.8</v>
+      <c r="H266" s="7">
+        <v>954</v>
       </c>
       <c r="I266" s="7">
         <v>1540</v>
@@ -12863,8 +12989,8 @@
       <c r="G267" s="7">
         <v>660</v>
       </c>
-      <c r="H267" s="9">
-        <v>532.20000000000005</v>
+      <c r="H267" s="7">
+        <v>980</v>
       </c>
       <c r="I267" s="7">
         <v>1690</v>
@@ -12902,7 +13028,7 @@
         <v>631</v>
       </c>
       <c r="H268" s="7">
-        <v>535</v>
+        <v>923</v>
       </c>
       <c r="I268" s="7">
         <v>1680</v>
@@ -12939,8 +13065,8 @@
       <c r="G269" s="9">
         <v>546.79999999999995</v>
       </c>
-      <c r="H269" s="9">
-        <v>489.8</v>
+      <c r="H269" s="7">
+        <v>809</v>
       </c>
       <c r="I269" s="7">
         <v>1745</v>
@@ -12977,8 +13103,8 @@
       <c r="G270" s="9">
         <v>537.6</v>
       </c>
-      <c r="H270" s="9">
-        <v>482.8</v>
+      <c r="H270" s="7">
+        <v>754</v>
       </c>
       <c r="I270" s="7">
         <v>1830</v>
@@ -13016,7 +13142,7 @@
         <v>528.79999999999995</v>
       </c>
       <c r="H271" s="7">
-        <v>533</v>
+        <v>809</v>
       </c>
       <c r="I271" s="7">
         <v>1880</v>
@@ -13053,8 +13179,8 @@
       <c r="G272" s="9">
         <v>501.8</v>
       </c>
-      <c r="H272" s="9">
-        <v>472.2</v>
+      <c r="H272" s="7">
+        <v>727</v>
       </c>
       <c r="I272" s="7">
         <v>1945</v>
@@ -13091,8 +13217,8 @@
       <c r="G273" s="7">
         <v>513</v>
       </c>
-      <c r="H273" s="9">
-        <v>491.6</v>
+      <c r="H273" s="7">
+        <v>654</v>
       </c>
       <c r="I273" s="7">
         <v>1965</v>
@@ -13129,8 +13255,8 @@
       <c r="G274" s="7">
         <v>562</v>
       </c>
-      <c r="H274" s="9">
-        <v>499.6</v>
+      <c r="H274" s="7">
+        <v>617</v>
       </c>
       <c r="I274" s="7">
         <v>1995</v>
@@ -13167,8 +13293,8 @@
       <c r="G275" s="7">
         <v>671</v>
       </c>
-      <c r="H275" s="9">
-        <v>547.79999999999995</v>
+      <c r="H275" s="7">
+        <v>759</v>
       </c>
       <c r="I275" s="7">
         <v>2115</v>
@@ -13205,8 +13331,8 @@
       <c r="G276" s="7">
         <v>714</v>
       </c>
-      <c r="H276" s="9">
-        <v>581.79999999999995</v>
+      <c r="H276" s="7">
+        <v>761</v>
       </c>
       <c r="I276" s="7">
         <v>2195</v>
@@ -13243,8 +13369,8 @@
       <c r="G277" s="7">
         <v>661</v>
       </c>
-      <c r="H277" s="9">
-        <v>556.6</v>
+      <c r="H277" s="7">
+        <v>622</v>
       </c>
       <c r="I277" s="7">
         <v>2035</v>
@@ -13281,8 +13407,8 @@
       <c r="G278" s="7">
         <v>608</v>
       </c>
-      <c r="H278" s="9">
-        <v>450.6</v>
+      <c r="H278" s="7">
+        <v>520</v>
       </c>
       <c r="I278" s="7">
         <v>1920</v>
@@ -13319,8 +13445,8 @@
       <c r="G279" s="7">
         <v>638</v>
       </c>
-      <c r="H279" s="9">
-        <v>486.6</v>
+      <c r="H279" s="7">
+        <v>643</v>
       </c>
       <c r="I279" s="7">
         <v>2095</v>
@@ -13358,7 +13484,7 @@
         <v>604</v>
       </c>
       <c r="H280" s="7">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="I280" s="7">
         <v>2120</v>
@@ -13395,8 +13521,8 @@
       <c r="G281" s="7">
         <v>619</v>
       </c>
-      <c r="H281" s="9">
-        <v>466.8</v>
+      <c r="H281" s="7">
+        <v>532</v>
       </c>
       <c r="I281" s="7">
         <v>2175</v>
@@ -13433,8 +13559,8 @@
       <c r="G282" s="7">
         <v>608</v>
       </c>
-      <c r="H282" s="9">
-        <v>489.8</v>
+      <c r="H282" s="7">
+        <v>516</v>
       </c>
       <c r="I282" s="7">
         <v>2100</v>
@@ -13471,8 +13597,8 @@
       <c r="G283" s="7">
         <v>613</v>
       </c>
-      <c r="H283" s="9">
-        <v>519.79999999999995</v>
+      <c r="H283" s="7">
+        <v>514</v>
       </c>
       <c r="I283" s="7">
         <v>2120</v>
@@ -13509,8 +13635,8 @@
       <c r="G284" s="7">
         <v>707</v>
       </c>
-      <c r="H284" s="9">
-        <v>477.6</v>
+      <c r="H284" s="7">
+        <v>403</v>
       </c>
       <c r="I284" s="7">
         <v>2130</v>
@@ -13547,8 +13673,8 @@
       <c r="G285" s="7">
         <v>801</v>
       </c>
-      <c r="H285" s="9">
-        <v>537.4</v>
+      <c r="H285" s="7">
+        <v>522</v>
       </c>
       <c r="I285" s="7">
         <v>2285</v>
@@ -13585,8 +13711,8 @@
       <c r="G286" s="7">
         <v>873</v>
       </c>
-      <c r="H286" s="9">
-        <v>558.6</v>
+      <c r="H286" s="7">
+        <v>598</v>
       </c>
       <c r="I286" s="7">
         <v>2455</v>
@@ -13623,8 +13749,8 @@
       <c r="G287" s="7">
         <v>953</v>
       </c>
-      <c r="H287" s="9">
-        <v>588.6</v>
+      <c r="H287" s="7">
+        <v>668</v>
       </c>
       <c r="I287" s="7">
         <v>2545</v>
@@ -13662,7 +13788,7 @@
         <v>972</v>
       </c>
       <c r="H288" s="7">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="I288" s="7">
         <v>2685</v>
@@ -13700,7 +13826,7 @@
         <v>1128</v>
       </c>
       <c r="H289" s="7">
-        <v>616</v>
+        <v>709</v>
       </c>
       <c r="I289" s="7">
         <v>2830</v>
@@ -13738,7 +13864,7 @@
         <v>1202</v>
       </c>
       <c r="H290" s="7">
-        <v>691</v>
+        <v>789</v>
       </c>
       <c r="I290" s="7">
         <v>2640</v>
@@ -13776,7 +13902,7 @@
         <v>1198</v>
       </c>
       <c r="H291" s="7">
-        <v>704</v>
+        <v>797</v>
       </c>
       <c r="I291" s="7">
         <v>2555</v>
@@ -13814,7 +13940,7 @@
         <v>1194</v>
       </c>
       <c r="H292" s="7">
-        <v>704</v>
+        <v>851</v>
       </c>
       <c r="I292" s="7">
         <v>2530</v>
@@ -13852,7 +13978,7 @@
         <v>1188</v>
       </c>
       <c r="H293" s="7">
-        <v>704</v>
+        <v>894</v>
       </c>
       <c r="I293" s="7">
         <v>2475</v>
@@ -13890,7 +14016,7 @@
         <v>1254</v>
       </c>
       <c r="H294" s="7">
-        <v>661</v>
+        <v>948</v>
       </c>
       <c r="I294" s="7">
         <v>2590</v>
@@ -13928,7 +14054,7 @@
         <v>1272</v>
       </c>
       <c r="H295" s="7">
-        <v>650</v>
+        <v>985</v>
       </c>
       <c r="I295" s="7">
         <v>2540</v>
@@ -13966,7 +14092,7 @@
         <v>1276</v>
       </c>
       <c r="H296" s="7">
-        <v>737</v>
+        <v>1175</v>
       </c>
       <c r="I296" s="7">
         <v>2500</v>
@@ -14004,7 +14130,7 @@
         <v>1284</v>
       </c>
       <c r="H297" s="7">
-        <v>776</v>
+        <v>1224</v>
       </c>
       <c r="I297" s="7">
         <v>2550</v>
@@ -14042,7 +14168,7 @@
         <v>1184.4000000000001</v>
       </c>
       <c r="H298" s="7">
-        <v>734</v>
+        <v>1184</v>
       </c>
       <c r="I298" s="7">
         <v>2395</v>
@@ -14080,7 +14206,7 @@
         <v>1167.8</v>
       </c>
       <c r="H299" s="7">
-        <v>841</v>
+        <v>1276</v>
       </c>
       <c r="I299" s="7">
         <v>2470</v>
@@ -14118,7 +14244,7 @@
         <v>1165.2</v>
       </c>
       <c r="H300" s="7">
-        <v>803</v>
+        <v>1173</v>
       </c>
       <c r="I300" s="7">
         <v>2495</v>
@@ -14156,7 +14282,7 @@
         <v>1103.2</v>
       </c>
       <c r="H301" s="7">
-        <v>791</v>
+        <v>1119</v>
       </c>
       <c r="I301" s="7">
         <v>2500</v>
@@ -14194,7 +14320,7 @@
         <v>1152.2</v>
       </c>
       <c r="H302" s="7">
-        <v>740</v>
+        <v>1093</v>
       </c>
       <c r="I302" s="7">
         <v>2530</v>
@@ -14232,7 +14358,7 @@
         <v>1216.8</v>
       </c>
       <c r="H303" s="7">
-        <v>778</v>
+        <v>1234</v>
       </c>
       <c r="I303" s="7">
         <v>2650</v>
@@ -14269,8 +14395,8 @@
       <c r="G304" s="9">
         <v>1227.4000000000001</v>
       </c>
-      <c r="H304" s="7">
-        <v>790</v>
+      <c r="H304" s="9">
+        <v>1257.5</v>
       </c>
       <c r="I304" s="7">
         <v>2715</v>
@@ -14308,7 +14434,7 @@
         <v>1185.5999999999999</v>
       </c>
       <c r="H305" s="7">
-        <v>746</v>
+        <v>1271</v>
       </c>
       <c r="I305" s="7">
         <v>2725</v>
@@ -14345,8 +14471,8 @@
       <c r="G306" s="9">
         <v>1292.5999999999999</v>
       </c>
-      <c r="H306" s="7">
-        <v>790</v>
+      <c r="H306" s="9">
+        <v>1304.5</v>
       </c>
       <c r="I306" s="7">
         <v>2760</v>
@@ -14384,7 +14510,7 @@
         <v>1299.5999999999999</v>
       </c>
       <c r="H307" s="7">
-        <v>853</v>
+        <v>1305</v>
       </c>
       <c r="I307" s="7">
         <v>2795</v>
@@ -14421,8 +14547,8 @@
       <c r="G308" s="9">
         <v>1462.8</v>
       </c>
-      <c r="H308" s="7">
-        <v>906</v>
+      <c r="H308" s="9">
+        <v>1532.5</v>
       </c>
       <c r="I308" s="7">
         <v>2675</v>
@@ -14460,7 +14586,7 @@
         <v>1511.6</v>
       </c>
       <c r="H309" s="7">
-        <v>903</v>
+        <v>1427</v>
       </c>
       <c r="I309" s="7">
         <v>2590</v>
@@ -14498,7 +14624,7 @@
         <v>1529</v>
       </c>
       <c r="H310" s="7">
-        <v>903</v>
+        <v>1352</v>
       </c>
       <c r="I310" s="7">
         <v>2840</v>
@@ -14536,7 +14662,7 @@
         <v>1612.6</v>
       </c>
       <c r="H311" s="7">
-        <v>987</v>
+        <v>1495</v>
       </c>
       <c r="I311" s="7">
         <v>2970</v>
@@ -14574,7 +14700,7 @@
         <v>1676.6</v>
       </c>
       <c r="H312" s="7">
-        <v>1046</v>
+        <v>1577</v>
       </c>
       <c r="I312" s="7">
         <v>2850</v>
@@ -14612,7 +14738,7 @@
         <v>1671.6</v>
       </c>
       <c r="H313" s="7">
-        <v>1076</v>
+        <v>1724</v>
       </c>
       <c r="I313" s="7">
         <v>2855</v>
@@ -14650,7 +14776,7 @@
         <v>1720.8</v>
       </c>
       <c r="H314" s="7">
-        <v>1106</v>
+        <v>1831</v>
       </c>
       <c r="I314" s="7">
         <v>2740</v>
@@ -14687,8 +14813,8 @@
       <c r="G315" s="9">
         <v>1640.6</v>
       </c>
-      <c r="H315" s="7">
-        <v>1070</v>
+      <c r="H315" s="9">
+        <v>1681.5</v>
       </c>
       <c r="I315" s="7">
         <v>2630</v>
@@ -14726,7 +14852,7 @@
         <v>1650.6</v>
       </c>
       <c r="H316" s="7">
-        <v>1186</v>
+        <v>1457</v>
       </c>
       <c r="I316" s="7">
         <v>2985</v>
@@ -14763,8 +14889,8 @@
       <c r="G317" s="9">
         <v>1438.4</v>
       </c>
-      <c r="H317" s="7">
-        <v>1168</v>
+      <c r="H317" s="9">
+        <v>1337.5</v>
       </c>
       <c r="I317" s="7">
         <v>2705</v>
@@ -14801,8 +14927,8 @@
       <c r="G318" s="9">
         <v>1394.2</v>
       </c>
-      <c r="H318" s="7">
-        <v>1202</v>
+      <c r="H318" s="9">
+        <v>1203.5</v>
       </c>
       <c r="I318" s="7">
         <v>2565</v>
@@ -14840,7 +14966,7 @@
         <v>1493.8</v>
       </c>
       <c r="H319" s="7">
-        <v>1210</v>
+        <v>1435</v>
       </c>
       <c r="I319" s="7">
         <v>2935</v>
@@ -14877,8 +15003,8 @@
       <c r="G320" s="9">
         <v>1531.4</v>
       </c>
-      <c r="H320" s="7">
-        <v>1200</v>
+      <c r="H320" s="9">
+        <v>1397.5</v>
       </c>
       <c r="I320" s="7">
         <v>3000</v>
@@ -14915,8 +15041,8 @@
       <c r="G321" s="9">
         <v>1497.6</v>
       </c>
-      <c r="H321" s="7">
-        <v>1176</v>
+      <c r="H321" s="9">
+        <v>1240.5</v>
       </c>
       <c r="I321" s="7">
         <v>2990</v>
@@ -14954,7 +15080,7 @@
         <v>1440</v>
       </c>
       <c r="H322" s="7">
-        <v>1150</v>
+        <v>1114</v>
       </c>
       <c r="I322" s="7">
         <v>2920</v>
@@ -14991,8 +15117,8 @@
       <c r="G323" s="9">
         <v>1179.4000000000001</v>
       </c>
-      <c r="H323" s="7">
-        <v>1130</v>
+      <c r="H323" s="9">
+        <v>954.3</v>
       </c>
       <c r="I323" s="7">
         <v>2940</v>
@@ -15029,8 +15155,8 @@
       <c r="G324" s="9">
         <v>1190.4000000000001</v>
       </c>
-      <c r="H324" s="7">
-        <v>1130</v>
+      <c r="H324" s="9">
+        <v>1033.5</v>
       </c>
       <c r="I324" s="7">
         <v>2805</v>
@@ -15067,8 +15193,8 @@
       <c r="G325" s="9">
         <v>1130.8</v>
       </c>
-      <c r="H325" s="7">
-        <v>1148</v>
+      <c r="H325" s="9">
+        <v>994.4</v>
       </c>
       <c r="I325" s="7">
         <v>2810</v>
@@ -15105,8 +15231,8 @@
       <c r="G326" s="9">
         <v>1156.5999999999999</v>
       </c>
-      <c r="H326" s="7">
-        <v>1144</v>
+      <c r="H326" s="9">
+        <v>1031.5</v>
       </c>
       <c r="I326" s="7">
         <v>2815</v>
@@ -15144,7 +15270,7 @@
         <v>1010.4</v>
       </c>
       <c r="H327" s="7">
-        <v>966</v>
+        <v>881</v>
       </c>
       <c r="I327" s="7">
         <v>2805</v>
@@ -15182,7 +15308,7 @@
         <v>1178.8</v>
       </c>
       <c r="H328" s="7">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="I328" s="7">
         <v>2775</v>
@@ -15220,7 +15346,7 @@
         <v>1247.5999999999999</v>
       </c>
       <c r="H329" s="7">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="I329" s="7">
         <v>2510</v>
@@ -15258,7 +15384,7 @@
         <v>1155.8</v>
       </c>
       <c r="H330" s="7">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="I330" s="7">
         <v>2565</v>
@@ -15296,7 +15422,7 @@
         <v>1215.8</v>
       </c>
       <c r="H331" s="7">
-        <v>1084</v>
+        <v>1097</v>
       </c>
       <c r="I331" s="7">
         <v>2580</v>
@@ -15334,7 +15460,7 @@
         <v>1329.8</v>
       </c>
       <c r="H332" s="7">
-        <v>1138</v>
+        <v>1164</v>
       </c>
       <c r="I332" s="7">
         <v>2740</v>
@@ -15371,8 +15497,8 @@
       <c r="G333" s="9">
         <v>1375.6</v>
       </c>
-      <c r="H333" s="7">
-        <v>1130</v>
+      <c r="H333" s="9">
+        <v>1189.5</v>
       </c>
       <c r="I333" s="7">
         <v>2900</v>
@@ -15409,8 +15535,8 @@
       <c r="G334" s="9">
         <v>1316.8</v>
       </c>
-      <c r="H334" s="7">
-        <v>1140</v>
+      <c r="H334" s="9">
+        <v>1178.5</v>
       </c>
       <c r="I334" s="7">
         <v>2865</v>
@@ -15448,7 +15574,7 @@
         <v>1273</v>
       </c>
       <c r="H335" s="7">
-        <v>1060</v>
+        <v>1233</v>
       </c>
       <c r="I335" s="7">
         <v>2875</v>
@@ -15486,7 +15612,7 @@
         <v>1208.4000000000001</v>
       </c>
       <c r="H336" s="7">
-        <v>1056</v>
+        <v>1258</v>
       </c>
       <c r="I336" s="7">
         <v>2820</v>
@@ -15523,8 +15649,8 @@
       <c r="G337" s="7">
         <v>1207</v>
       </c>
-      <c r="H337" s="7">
-        <v>1034</v>
+      <c r="H337" s="9">
+        <v>1330.5</v>
       </c>
       <c r="I337" s="7">
         <v>2825</v>
@@ -15561,8 +15687,8 @@
       <c r="G338" s="9">
         <v>1186.4000000000001</v>
       </c>
-      <c r="H338" s="7">
-        <v>1194</v>
+      <c r="H338" s="9">
+        <v>1420.5</v>
       </c>
       <c r="I338" s="7">
         <v>2955</v>
@@ -15600,7 +15726,7 @@
         <v>1178.5999999999999</v>
       </c>
       <c r="H339" s="7">
-        <v>1250</v>
+        <v>1524</v>
       </c>
       <c r="I339" s="7">
         <v>3065</v>
@@ -15638,7 +15764,7 @@
         <v>1246.8</v>
       </c>
       <c r="H340" s="7">
-        <v>1203</v>
+        <v>1521</v>
       </c>
       <c r="I340" s="7">
         <v>2920</v>
@@ -15675,8 +15801,8 @@
       <c r="G341" s="9">
         <v>1236.5999999999999</v>
       </c>
-      <c r="H341" s="7">
-        <v>1188</v>
+      <c r="H341" s="9">
+        <v>1465.5</v>
       </c>
       <c r="I341" s="7">
         <v>3040</v>
@@ -15713,8 +15839,8 @@
       <c r="G342" s="7">
         <v>1342</v>
       </c>
-      <c r="H342" s="7">
-        <v>1204</v>
+      <c r="H342" s="9">
+        <v>1630.5</v>
       </c>
       <c r="I342" s="7">
         <v>3090</v>
@@ -15751,8 +15877,8 @@
       <c r="G343" s="7">
         <v>1398</v>
       </c>
-      <c r="H343" s="7">
-        <v>1317</v>
+      <c r="H343" s="9">
+        <v>1700.5</v>
       </c>
       <c r="I343" s="7">
         <v>3320</v>
@@ -15790,7 +15916,7 @@
         <v>1408.8</v>
       </c>
       <c r="H344" s="7">
-        <v>1321</v>
+        <v>1668</v>
       </c>
       <c r="I344" s="7">
         <v>3575</v>
@@ -15827,8 +15953,8 @@
       <c r="G345" s="9">
         <v>1442.6</v>
       </c>
-      <c r="H345" s="7">
-        <v>1339</v>
+      <c r="H345" s="9">
+        <v>1649.5</v>
       </c>
       <c r="I345" s="7">
         <v>3640</v>
@@ -15866,7 +15992,7 @@
         <v>1496</v>
       </c>
       <c r="H346" s="7">
-        <v>1283</v>
+        <v>1619</v>
       </c>
       <c r="I346" s="7">
         <v>3665</v>
@@ -15903,8 +16029,8 @@
       <c r="G347" s="7">
         <v>1447</v>
       </c>
-      <c r="H347" s="7">
-        <v>1112</v>
+      <c r="H347" s="9">
+        <v>1677.5</v>
       </c>
       <c r="I347" s="7">
         <v>3310</v>
@@ -15942,7 +16068,7 @@
         <v>1365</v>
       </c>
       <c r="H348" s="7">
-        <v>1132</v>
+        <v>1521</v>
       </c>
       <c r="I348" s="7">
         <v>3205</v>
@@ -15980,7 +16106,7 @@
         <v>1436.2</v>
       </c>
       <c r="H349" s="7">
-        <v>1179</v>
+        <v>1632</v>
       </c>
       <c r="I349" s="7">
         <v>3490</v>
@@ -16017,8 +16143,8 @@
       <c r="G350" s="9">
         <v>1384.2</v>
       </c>
-      <c r="H350" s="7">
-        <v>1217</v>
+      <c r="H350" s="9">
+        <v>1489.5</v>
       </c>
       <c r="I350" s="7">
         <v>3375</v>
@@ -16055,8 +16181,8 @@
       <c r="G351" s="7">
         <v>1434</v>
       </c>
-      <c r="H351" s="7">
-        <v>1276</v>
+      <c r="H351" s="9">
+        <v>1493.5</v>
       </c>
       <c r="I351" s="7">
         <v>3390</v>
@@ -16094,7 +16220,7 @@
         <v>1461</v>
       </c>
       <c r="H352" s="7">
-        <v>1273</v>
+        <v>1438</v>
       </c>
       <c r="I352" s="7">
         <v>3290</v>
@@ -16131,8 +16257,8 @@
       <c r="G353" s="7">
         <v>1386</v>
       </c>
-      <c r="H353" s="7">
-        <v>1428</v>
+      <c r="H353" s="9">
+        <v>1326.5</v>
       </c>
       <c r="I353" s="7">
         <v>3100</v>
@@ -16169,8 +16295,8 @@
       <c r="G354" s="7">
         <v>1419</v>
       </c>
-      <c r="H354" s="7">
-        <v>1573</v>
+      <c r="H354" s="9">
+        <v>1323.5</v>
       </c>
       <c r="I354" s="7">
         <v>3360</v>
@@ -16207,8 +16333,8 @@
       <c r="G355" s="7">
         <v>1323</v>
       </c>
-      <c r="H355" s="7">
-        <v>1456</v>
+      <c r="H355" s="9">
+        <v>1249.5</v>
       </c>
       <c r="I355" s="7">
         <v>3135</v>
@@ -16245,8 +16371,8 @@
       <c r="G356" s="9">
         <v>1360.6</v>
       </c>
-      <c r="H356" s="7">
-        <v>1320</v>
+      <c r="H356" s="9">
+        <v>1164.5</v>
       </c>
       <c r="I356" s="7">
         <v>3250</v>
@@ -16283,8 +16409,8 @@
       <c r="G357" s="9">
         <v>1281.2</v>
       </c>
-      <c r="H357" s="7">
-        <v>1205</v>
+      <c r="H357" s="9">
+        <v>990.6</v>
       </c>
       <c r="I357" s="7">
         <v>2963</v>
@@ -16322,7 +16448,7 @@
         <v>1335</v>
       </c>
       <c r="H358" s="7">
-        <v>1296</v>
+        <v>1062</v>
       </c>
       <c r="I358" s="7">
         <v>3070</v>
@@ -16360,7 +16486,7 @@
         <v>1339.4</v>
       </c>
       <c r="H359" s="7">
-        <v>1217</v>
+        <v>1025</v>
       </c>
       <c r="I359" s="7">
         <v>3110</v>
@@ -16397,8 +16523,8 @@
       <c r="G360" s="9">
         <v>1297.4000000000001</v>
       </c>
-      <c r="H360" s="7">
-        <v>1221</v>
+      <c r="H360" s="9">
+        <v>954.2</v>
       </c>
       <c r="I360" s="7">
         <v>3195</v>
@@ -16436,7 +16562,7 @@
         <v>1381</v>
       </c>
       <c r="H361" s="7">
-        <v>1294</v>
+        <v>1021</v>
       </c>
       <c r="I361" s="7">
         <v>3140</v>
@@ -16473,8 +16599,8 @@
       <c r="G362" s="9">
         <v>1276.8</v>
       </c>
-      <c r="H362" s="7">
-        <v>1300</v>
+      <c r="H362" s="9">
+        <v>864.8</v>
       </c>
       <c r="I362" s="7">
         <v>3160</v>
@@ -16511,8 +16637,8 @@
       <c r="G363" s="9">
         <v>1337.6</v>
       </c>
-      <c r="H363" s="7">
-        <v>1435</v>
+      <c r="H363" s="9">
+        <v>897.6</v>
       </c>
       <c r="I363" s="7">
         <v>3140</v>
@@ -16549,8 +16675,8 @@
       <c r="G364" s="9">
         <v>1404.8</v>
       </c>
-      <c r="H364" s="7">
-        <v>1435</v>
+      <c r="H364" s="9">
+        <v>924.7</v>
       </c>
       <c r="I364" s="7">
         <v>3110</v>
@@ -16587,8 +16713,8 @@
       <c r="G365" s="7">
         <v>1392</v>
       </c>
-      <c r="H365" s="7">
-        <v>1371</v>
+      <c r="H365" s="9">
+        <v>820.1</v>
       </c>
       <c r="I365" s="7">
         <v>3260</v>
@@ -16625,8 +16751,8 @@
       <c r="G366" s="9">
         <v>1443.2</v>
       </c>
-      <c r="H366" s="7">
-        <v>1394</v>
+      <c r="H366" s="9">
+        <v>875.6</v>
       </c>
       <c r="I366" s="7">
         <v>3500</v>
@@ -16663,8 +16789,8 @@
       <c r="G367" s="9">
         <v>1508.4</v>
       </c>
-      <c r="H367" s="7">
-        <v>1432</v>
+      <c r="H367" s="9">
+        <v>916.9</v>
       </c>
       <c r="I367" s="7">
         <v>3625</v>
@@ -16702,7 +16828,7 @@
         <v>1527.6</v>
       </c>
       <c r="H368" s="7">
-        <v>1492</v>
+        <v>1032</v>
       </c>
       <c r="I368" s="7">
         <v>4005</v>
@@ -16739,8 +16865,8 @@
       <c r="G369" s="9">
         <v>1542.8</v>
       </c>
-      <c r="H369" s="7">
-        <v>1467</v>
+      <c r="H369" s="9">
+        <v>1029.5</v>
       </c>
       <c r="I369" s="7">
         <v>3955</v>
@@ -16778,7 +16904,7 @@
         <v>1530.4</v>
       </c>
       <c r="H370" s="7">
-        <v>1555</v>
+        <v>1102</v>
       </c>
       <c r="I370" s="7">
         <v>3870</v>
@@ -16815,8 +16941,8 @@
       <c r="G371" s="9">
         <v>1425.4</v>
       </c>
-      <c r="H371" s="7">
-        <v>1291</v>
+      <c r="H371" s="9">
+        <v>1030.5</v>
       </c>
       <c r="I371" s="7">
         <v>3220</v>
@@ -16854,7 +16980,7 @@
         <v>1300.2</v>
       </c>
       <c r="H372" s="7">
-        <v>1040</v>
+        <v>825</v>
       </c>
       <c r="I372" s="7">
         <v>3770</v>
@@ -16891,8 +17017,8 @@
       <c r="G373" s="9">
         <v>1333.2</v>
       </c>
-      <c r="H373" s="7">
-        <v>1105</v>
+      <c r="H373" s="9">
+        <v>826.8</v>
       </c>
       <c r="I373" s="7">
         <v>3665</v>
@@ -16930,7 +17056,7 @@
         <v>1351</v>
       </c>
       <c r="H374" s="7">
-        <v>1245</v>
+        <v>963</v>
       </c>
       <c r="I374" s="7">
         <v>3820</v>
@@ -16967,8 +17093,8 @@
       <c r="G375" s="9">
         <v>1352.4</v>
       </c>
-      <c r="H375" s="7">
-        <v>1199</v>
+      <c r="H375" s="9">
+        <v>939.6</v>
       </c>
       <c r="I375" s="7">
         <v>3565</v>
@@ -17006,7 +17132,7 @@
         <v>1243.4000000000001</v>
       </c>
       <c r="H376" s="7">
-        <v>1191</v>
+        <v>900</v>
       </c>
       <c r="I376" s="7">
         <v>2946</v>
@@ -17043,8 +17169,8 @@
       <c r="G377" s="9">
         <v>1401.2</v>
       </c>
-      <c r="H377" s="7">
-        <v>1212</v>
+      <c r="H377" s="9">
+        <v>977.9</v>
       </c>
       <c r="I377" s="7">
         <v>3310</v>
@@ -17081,8 +17207,8 @@
       <c r="G378" s="9">
         <v>1386.4</v>
       </c>
-      <c r="H378" s="7">
-        <v>1342</v>
+      <c r="H378" s="9">
+        <v>888.8</v>
       </c>
       <c r="I378" s="7">
         <v>3245</v>
@@ -17119,8 +17245,8 @@
       <c r="G379" s="9">
         <v>1360.6</v>
       </c>
-      <c r="H379" s="7">
-        <v>1175</v>
+      <c r="H379" s="9">
+        <v>960.7</v>
       </c>
       <c r="I379" s="7">
         <v>2955</v>
@@ -17157,8 +17283,8 @@
       <c r="G380" s="9">
         <v>1399.8</v>
       </c>
-      <c r="H380" s="7">
-        <v>1388</v>
+      <c r="H380" s="9">
+        <v>1112.5</v>
       </c>
       <c r="I380" s="7">
         <v>3130</v>
@@ -17195,8 +17321,8 @@
       <c r="G381" s="9">
         <v>1591.4</v>
       </c>
-      <c r="H381" s="7">
-        <v>1411</v>
+      <c r="H381" s="9">
+        <v>1190.5</v>
       </c>
       <c r="I381" s="7">
         <v>3075</v>
@@ -17233,8 +17359,8 @@
       <c r="G382" s="7">
         <v>1460</v>
       </c>
-      <c r="H382" s="7">
-        <v>1502</v>
+      <c r="H382" s="9">
+        <v>1351.5</v>
       </c>
       <c r="I382" s="7">
         <v>2947</v>
@@ -17271,8 +17397,8 @@
       <c r="G383" s="9">
         <v>1574.6</v>
       </c>
-      <c r="H383" s="7">
-        <v>1625</v>
+      <c r="H383" s="9">
+        <v>1365.5</v>
       </c>
       <c r="I383" s="7">
         <v>3030</v>
@@ -17309,8 +17435,8 @@
       <c r="G384" s="9">
         <v>1723.2</v>
       </c>
-      <c r="H384" s="7">
-        <v>1713</v>
+      <c r="H384" s="9">
+        <v>1423.5</v>
       </c>
       <c r="I384" s="7">
         <v>2976</v>
@@ -17348,7 +17474,7 @@
         <v>1625.4</v>
       </c>
       <c r="H385" s="7">
-        <v>1698</v>
+        <v>1289</v>
       </c>
       <c r="I385" s="7">
         <v>2810</v>
@@ -17386,7 +17512,7 @@
         <v>1823</v>
       </c>
       <c r="H386" s="7">
-        <v>1780</v>
+        <v>1247</v>
       </c>
       <c r="I386" s="7">
         <v>2787</v>
@@ -17423,8 +17549,8 @@
       <c r="G387" s="7">
         <v>1942</v>
       </c>
-      <c r="H387" s="7">
-        <v>1733</v>
+      <c r="H387" s="9">
+        <v>1285.5</v>
       </c>
       <c r="I387" s="7">
         <v>2872</v>
@@ -17461,8 +17587,8 @@
       <c r="G388" s="7">
         <v>1961</v>
       </c>
-      <c r="H388" s="7">
-        <v>1691</v>
+      <c r="H388" s="9">
+        <v>1305.5</v>
       </c>
       <c r="I388" s="7">
         <v>2836</v>
@@ -17500,7 +17626,7 @@
         <v>1918.4</v>
       </c>
       <c r="H389" s="7">
-        <v>1981</v>
+        <v>1312</v>
       </c>
       <c r="I389" s="7">
         <v>2871</v>
@@ -17538,7 +17664,7 @@
         <v>2000</v>
       </c>
       <c r="H390" s="7">
-        <v>2165</v>
+        <v>1390</v>
       </c>
       <c r="I390" s="7">
         <v>3015</v>
@@ -17575,8 +17701,8 @@
       <c r="G391" s="9">
         <v>2006.5</v>
       </c>
-      <c r="H391" s="7">
-        <v>2283</v>
+      <c r="H391" s="9">
+        <v>1392.5</v>
       </c>
       <c r="I391" s="7">
         <v>2831</v>
@@ -17613,8 +17739,8 @@
       <c r="G392" s="7">
         <v>2001</v>
       </c>
-      <c r="H392" s="7">
-        <v>2394</v>
+      <c r="H392" s="9">
+        <v>1242.5</v>
       </c>
       <c r="I392" s="7">
         <v>2565</v>
@@ -17652,7 +17778,7 @@
         <v>2105.5</v>
       </c>
       <c r="H393" s="7">
-        <v>2466</v>
+        <v>1265</v>
       </c>
       <c r="I393" s="7">
         <v>2622</v>
@@ -17689,8 +17815,8 @@
       <c r="G394" s="9">
         <v>2245.5</v>
       </c>
-      <c r="H394" s="7">
-        <v>2186</v>
+      <c r="H394" s="9">
+        <v>1252.5</v>
       </c>
       <c r="I394" s="7">
         <v>2681</v>
@@ -17728,7 +17854,7 @@
         <v>2138.5</v>
       </c>
       <c r="H395" s="7">
-        <v>2173</v>
+        <v>1190</v>
       </c>
       <c r="I395" s="7">
         <v>2825</v>
@@ -17765,8 +17891,8 @@
       <c r="G396" s="9">
         <v>2222.5</v>
       </c>
-      <c r="H396" s="7">
-        <v>2418</v>
+      <c r="H396" s="9">
+        <v>1188.5</v>
       </c>
       <c r="I396" s="7">
         <v>2979</v>
@@ -17803,8 +17929,8 @@
       <c r="G397" s="9">
         <v>2235.5</v>
       </c>
-      <c r="H397" s="7">
-        <v>2403</v>
+      <c r="H397" s="9">
+        <v>1160.5</v>
       </c>
       <c r="I397" s="7">
         <v>2923</v>
@@ -17842,7 +17968,7 @@
         <v>2122.5</v>
       </c>
       <c r="H398" s="7">
-        <v>2024</v>
+        <v>1184</v>
       </c>
       <c r="I398" s="7">
         <v>2887</v>
@@ -17865,34 +17991,34 @@
         <v>531</v>
       </c>
       <c r="C399" s="9">
-        <v>730.2</v>
+        <v>741.8</v>
       </c>
       <c r="D399" s="7">
-        <v>11250</v>
+        <v>11505</v>
       </c>
       <c r="E399" s="7">
-        <v>2510</v>
+        <v>2500</v>
       </c>
       <c r="F399" s="7">
-        <v>3707</v>
+        <v>3776</v>
       </c>
       <c r="G399" s="9">
-        <v>2111.5</v>
+        <v>2121.5</v>
       </c>
       <c r="H399" s="7">
-        <v>1909</v>
+        <v>1117</v>
       </c>
       <c r="I399" s="7">
-        <v>3030</v>
+        <v>3005</v>
       </c>
       <c r="J399" s="7">
-        <v>57840</v>
+        <v>58380</v>
       </c>
       <c r="K399" s="7">
-        <v>4219</v>
+        <v>4326</v>
       </c>
       <c r="L399" s="9">
-        <v>1216.5</v>
+        <v>1231.5</v>
       </c>
     </row>
   </sheetData>
